--- a/Ratio_Calculation.xlsx
+++ b/Ratio_Calculation.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thaid\Desktop\MQP\Parts\Refer. Prototype - Test\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -49,12 +54,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="##"/>
     <numFmt numFmtId="165" formatCode="0.####"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,6 +98,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -139,7 +152,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -171,9 +184,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -205,6 +219,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -380,14 +395,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I662"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A632" workbookViewId="0">
+      <selection activeCell="I647" sqref="A647:I647"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -416,7 +433,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>15</v>
       </c>
@@ -442,10 +459,10 @@
         <v>10</v>
       </c>
       <c r="I2" s="2">
-        <v>0.3076923076923077</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>0.30769230769230771</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>15</v>
       </c>
@@ -471,10 +488,10 @@
         <v>10</v>
       </c>
       <c r="I3" s="2">
-        <v>0.3076923076923077</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>0.30769230769230771</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>15</v>
       </c>
@@ -500,10 +517,10 @@
         <v>10</v>
       </c>
       <c r="I4" s="2">
-        <v>0.2972027972027972</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>0.29720279720279719</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>15</v>
       </c>
@@ -529,10 +546,10 @@
         <v>10</v>
       </c>
       <c r="I5" s="2">
-        <v>0.2991452991452992</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>0.29914529914529919</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>15</v>
       </c>
@@ -558,10 +575,10 @@
         <v>10</v>
       </c>
       <c r="I6" s="2">
-        <v>0.3076923076923077</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>0.30769230769230771</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>15</v>
       </c>
@@ -587,10 +604,10 @@
         <v>10</v>
       </c>
       <c r="I7" s="2">
-        <v>0.2884615384615385</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>0.28846153846153849</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>15</v>
       </c>
@@ -616,10 +633,10 @@
         <v>10</v>
       </c>
       <c r="I8" s="2">
-        <v>0.2884615384615385</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>0.28846153846153849</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>15</v>
       </c>
@@ -645,10 +662,10 @@
         <v>10</v>
       </c>
       <c r="I9" s="2">
-        <v>0.2917771883289125</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>0.29177718832891247</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>15</v>
       </c>
@@ -674,10 +691,10 @@
         <v>10</v>
       </c>
       <c r="I10" s="2">
-        <v>0.2958579881656805</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>0.29585798816568049</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>15</v>
       </c>
@@ -703,10 +720,10 @@
         <v>10</v>
       </c>
       <c r="I11" s="2">
-        <v>0.2991452991452992</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>0.29914529914529919</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>15</v>
       </c>
@@ -732,10 +749,10 @@
         <v>10</v>
       </c>
       <c r="I12" s="2">
-        <v>0.3010033444816054</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>0.30100334448160537</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>15</v>
       </c>
@@ -761,10 +778,10 @@
         <v>10</v>
       </c>
       <c r="I13" s="2">
-        <v>0.3021978021978022</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>0.30219780219780218</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>15</v>
       </c>
@@ -790,10 +807,10 @@
         <v>10</v>
       </c>
       <c r="I14" s="2">
-        <v>0.2747252747252747</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>0.27472527472527469</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>15</v>
       </c>
@@ -819,10 +836,10 @@
         <v>10</v>
       </c>
       <c r="I15" s="2">
-        <v>0.2777777777777778</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>0.27777777777777779</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -848,10 +865,10 @@
         <v>10</v>
       </c>
       <c r="I16" s="2">
-        <v>0.2797202797202797</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>0.27972027972027969</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -877,10 +894,10 @@
         <v>10</v>
       </c>
       <c r="I17" s="2">
-        <v>0.2810650887573964</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>0.28106508875739639</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -906,10 +923,10 @@
         <v>10</v>
       </c>
       <c r="I18" s="2">
-        <v>0.2884615384615385</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>0.28846153846153849</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -935,10 +952,10 @@
         <v>10</v>
       </c>
       <c r="I19" s="2">
-        <v>0.2923076923076923</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>0.29230769230769232</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>15</v>
       </c>
@@ -964,10 +981,10 @@
         <v>10</v>
       </c>
       <c r="I20" s="2">
-        <v>0.2917771883289125</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>0.29177718832891247</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>15</v>
       </c>
@@ -993,10 +1010,10 @@
         <v>10</v>
       </c>
       <c r="I21" s="2">
-        <v>0.3036437246963563</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>0.30364372469635631</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>15</v>
       </c>
@@ -1022,10 +1039,10 @@
         <v>10</v>
       </c>
       <c r="I22" s="2">
-        <v>0.3044871794871795</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>0.30448717948717952</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>15</v>
       </c>
@@ -1051,10 +1068,10 @@
         <v>10</v>
       </c>
       <c r="I23" s="2">
-        <v>0.3050397877984085</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>0.30503978779840851</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>15</v>
       </c>
@@ -1080,10 +1097,10 @@
         <v>10</v>
       </c>
       <c r="I24" s="2">
-        <v>0.2692307692307692</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>0.26923076923076922</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>15</v>
       </c>
@@ -1109,10 +1126,10 @@
         <v>10</v>
       </c>
       <c r="I25" s="2">
-        <v>0.2724358974358975</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>0.27243589743589752</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>15</v>
       </c>
@@ -1138,10 +1155,10 @@
         <v>10</v>
       </c>
       <c r="I26" s="2">
-        <v>0.2747252747252747</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>0.27472527472527469</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>15</v>
       </c>
@@ -1167,10 +1184,10 @@
         <v>10</v>
       </c>
       <c r="I27" s="2">
-        <v>0.2842809364548495</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>0.28428093645484948</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>15</v>
       </c>
@@ -1196,10 +1213,10 @@
         <v>10</v>
       </c>
       <c r="I28" s="2">
-        <v>0.2849002849002849</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>0.28490028490028491</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>15</v>
       </c>
@@ -1225,10 +1242,10 @@
         <v>10</v>
       </c>
       <c r="I29" s="2">
-        <v>0.2930402930402931</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>0.29304029304029311</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>15</v>
       </c>
@@ -1254,10 +1271,10 @@
         <v>10</v>
       </c>
       <c r="I30" s="2">
-        <v>0.2958579881656805</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>0.29585798816568049</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>15</v>
       </c>
@@ -1283,10 +1300,10 @@
         <v>10</v>
       </c>
       <c r="I31" s="2">
-        <v>0.3021978021978022</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>0.30219780219780218</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>15</v>
       </c>
@@ -1312,10 +1329,10 @@
         <v>10</v>
       </c>
       <c r="I32" s="2">
-        <v>0.3036437246963563</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>0.30364372469635631</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>15</v>
       </c>
@@ -1341,10 +1358,10 @@
         <v>10</v>
       </c>
       <c r="I33" s="2">
-        <v>0.3044871794871795</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>0.30448717948717952</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>15</v>
       </c>
@@ -1370,10 +1387,10 @@
         <v>10</v>
       </c>
       <c r="I34" s="2">
-        <v>0.3076923076923077</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>0.30769230769230771</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>15</v>
       </c>
@@ -1399,10 +1416,10 @@
         <v>10</v>
       </c>
       <c r="I35" s="2">
-        <v>0.2622377622377622</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>0.26223776223776218</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>15</v>
       </c>
@@ -1428,10 +1445,10 @@
         <v>10</v>
       </c>
       <c r="I36" s="2">
-        <v>0.2652519893899205</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>0.26525198938992051</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>15</v>
       </c>
@@ -1457,10 +1474,10 @@
         <v>10</v>
       </c>
       <c r="I37" s="2">
-        <v>0.2714932126696833</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>0.27149321266968329</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>15</v>
       </c>
@@ -1486,10 +1503,10 @@
         <v>10</v>
       </c>
       <c r="I38" s="2">
-        <v>0.2747252747252747</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>0.27472527472527469</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>15</v>
       </c>
@@ -1515,10 +1532,10 @@
         <v>10</v>
       </c>
       <c r="I39" s="2">
-        <v>0.2747252747252747</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>0.27472527472527469</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>15</v>
       </c>
@@ -1544,10 +1561,10 @@
         <v>10</v>
       </c>
       <c r="I40" s="2">
-        <v>0.282051282051282</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>0.28205128205128199</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>15</v>
       </c>
@@ -1576,7 +1593,7 @@
         <v>0.2834008097165992</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>15</v>
       </c>
@@ -1602,10 +1619,10 @@
         <v>10</v>
       </c>
       <c r="I42" s="2">
-        <v>0.2842809364548495</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>0.28428093645484948</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>15</v>
       </c>
@@ -1631,10 +1648,10 @@
         <v>10</v>
       </c>
       <c r="I43" s="2">
-        <v>0.2884615384615385</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>0.28846153846153849</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>15</v>
       </c>
@@ -1660,10 +1677,10 @@
         <v>10</v>
       </c>
       <c r="I44" s="2">
-        <v>0.2941176470588235</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>0.29411764705882348</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>15</v>
       </c>
@@ -1689,10 +1706,10 @@
         <v>10</v>
       </c>
       <c r="I45" s="2">
-        <v>0.2972027972027972</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>0.29720279720279719</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>15</v>
       </c>
@@ -1718,10 +1735,10 @@
         <v>10</v>
       </c>
       <c r="I46" s="2">
-        <v>0.2958579881656805</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>0.29585798816568049</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>15</v>
       </c>
@@ -1747,10 +1764,10 @@
         <v>10</v>
       </c>
       <c r="I47" s="2">
-        <v>0.2991452991452992</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>0.29914529914529919</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>15</v>
       </c>
@@ -1776,10 +1793,10 @@
         <v>10</v>
       </c>
       <c r="I48" s="2">
-        <v>0.3021978021978022</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>0.30219780219780218</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>15</v>
       </c>
@@ -1805,10 +1822,10 @@
         <v>10</v>
       </c>
       <c r="I49" s="2">
-        <v>0.3076923076923077</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>0.30769230769230771</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>15</v>
       </c>
@@ -1834,10 +1851,10 @@
         <v>10</v>
       </c>
       <c r="I50" s="2">
-        <v>0.3076923076923077</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>0.30769230769230771</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>15</v>
       </c>
@@ -1863,10 +1880,10 @@
         <v>10</v>
       </c>
       <c r="I51" s="2">
-        <v>0.2564102564102564</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>0.25641025641025639</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>15</v>
       </c>
@@ -1892,10 +1909,10 @@
         <v>10</v>
       </c>
       <c r="I52" s="2">
-        <v>0.2564102564102564</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>0.25641025641025639</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>15</v>
       </c>
@@ -1921,10 +1938,10 @@
         <v>10</v>
       </c>
       <c r="I53" s="2">
-        <v>0.2564102564102564</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>0.25641025641025639</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>15</v>
       </c>
@@ -1950,10 +1967,10 @@
         <v>10</v>
       </c>
       <c r="I54" s="2">
-        <v>0.2675585284280936</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>0.26755852842809358</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>15</v>
       </c>
@@ -1979,10 +1996,10 @@
         <v>10</v>
       </c>
       <c r="I55" s="2">
-        <v>0.2769230769230769</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>0.27692307692307688</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>15</v>
       </c>
@@ -2008,10 +2025,10 @@
         <v>10</v>
       </c>
       <c r="I56" s="2">
-        <v>0.2785145888594165</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>0.27851458885941649</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>15</v>
       </c>
@@ -2037,10 +2054,10 @@
         <v>10</v>
       </c>
       <c r="I57" s="2">
-        <v>0.2884615384615385</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>0.28846153846153849</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>15</v>
       </c>
@@ -2066,10 +2083,10 @@
         <v>10</v>
       </c>
       <c r="I58" s="2">
-        <v>0.2884615384615385</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>0.28846153846153849</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>15</v>
       </c>
@@ -2095,10 +2112,10 @@
         <v>10</v>
       </c>
       <c r="I59" s="2">
-        <v>0.2884615384615385</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>0.28846153846153849</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>15</v>
       </c>
@@ -2124,10 +2141,10 @@
         <v>10</v>
       </c>
       <c r="I60" s="2">
-        <v>0.2972027972027972</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>0.29720279720279719</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>15</v>
       </c>
@@ -2153,10 +2170,10 @@
         <v>10</v>
       </c>
       <c r="I61" s="2">
-        <v>0.2991452991452992</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>0.29914529914529919</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>15</v>
       </c>
@@ -2182,10 +2199,10 @@
         <v>10</v>
       </c>
       <c r="I62" s="2">
-        <v>0.3076923076923077</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>0.30769230769230771</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>15</v>
       </c>
@@ -2211,10 +2228,10 @@
         <v>10</v>
       </c>
       <c r="I63" s="2">
-        <v>0.3076923076923077</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>0.30769230769230771</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>16</v>
       </c>
@@ -2240,10 +2257,10 @@
         <v>10</v>
       </c>
       <c r="I64" s="2">
-        <v>0.3090909090909091</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>0.30909090909090908</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>16</v>
       </c>
@@ -2272,7 +2289,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>16</v>
       </c>
@@ -2301,7 +2318,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>16</v>
       </c>
@@ -2327,10 +2344,10 @@
         <v>10</v>
       </c>
       <c r="I67" s="2">
-        <v>0.303448275862069</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>0.30344827586206902</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>16</v>
       </c>
@@ -2356,10 +2373,10 @@
         <v>10</v>
       </c>
       <c r="I68" s="2">
-        <v>0.3076923076923077</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>0.30769230769230771</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>16</v>
       </c>
@@ -2385,10 +2402,10 @@
         <v>10</v>
       </c>
       <c r="I69" s="2">
-        <v>0.2857142857142858</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>0.28571428571428581</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>16</v>
       </c>
@@ -2414,10 +2431,10 @@
         <v>10</v>
       </c>
       <c r="I70" s="2">
-        <v>0.2888888888888889</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>0.28888888888888892</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>16</v>
       </c>
@@ -2443,10 +2460,10 @@
         <v>10</v>
       </c>
       <c r="I71" s="2">
-        <v>0.290909090909091</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>0.29090909090909101</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>16</v>
       </c>
@@ -2472,10 +2489,10 @@
         <v>10</v>
       </c>
       <c r="I72" s="2">
-        <v>0.2923076923076923</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>0.29230769230769232</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>16</v>
       </c>
@@ -2504,7 +2521,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>16</v>
       </c>
@@ -2530,10 +2547,10 @@
         <v>10</v>
       </c>
       <c r="I74" s="2">
-        <v>0.304</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>0.30399999999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>16</v>
       </c>
@@ -2559,10 +2576,10 @@
         <v>10</v>
       </c>
       <c r="I75" s="2">
-        <v>0.303448275862069</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>0.30344827586206902</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>16</v>
       </c>
@@ -2588,10 +2605,10 @@
         <v>10</v>
       </c>
       <c r="I76" s="2">
-        <v>0.28</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>16</v>
       </c>
@@ -2617,10 +2634,10 @@
         <v>10</v>
       </c>
       <c r="I77" s="2">
-        <v>0.2833333333333334</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>0.28333333333333338</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>16</v>
       </c>
@@ -2646,10 +2663,10 @@
         <v>10</v>
       </c>
       <c r="I78" s="2">
-        <v>0.2857142857142858</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>0.28571428571428581</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>16</v>
       </c>
@@ -2675,10 +2692,10 @@
         <v>10</v>
       </c>
       <c r="I79" s="2">
-        <v>0.2956521739130435</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>0.29565217391304349</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>16</v>
       </c>
@@ -2704,10 +2721,10 @@
         <v>10</v>
       </c>
       <c r="I80" s="2">
-        <v>0.2962962962962963</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>0.29629629629629628</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>16</v>
       </c>
@@ -2733,10 +2750,10 @@
         <v>10</v>
       </c>
       <c r="I81" s="2">
-        <v>0.3047619047619048</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>0.30476190476190479</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>16</v>
       </c>
@@ -2762,10 +2779,10 @@
         <v>10</v>
       </c>
       <c r="I82" s="2">
-        <v>0.3076923076923077</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>0.30769230769230771</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>16</v>
       </c>
@@ -2791,10 +2808,10 @@
         <v>10</v>
       </c>
       <c r="I83" s="2">
-        <v>0.2727272727272727</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>0.27272727272727271</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>16</v>
       </c>
@@ -2820,10 +2837,10 @@
         <v>10</v>
       </c>
       <c r="I84" s="2">
-        <v>0.2758620689655173</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>0.27586206896551729</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>16</v>
       </c>
@@ -2849,10 +2866,10 @@
         <v>10</v>
       </c>
       <c r="I85" s="2">
-        <v>0.2823529411764706</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>0.28235294117647058</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>16</v>
       </c>
@@ -2878,10 +2895,10 @@
         <v>10</v>
       </c>
       <c r="I86" s="2">
-        <v>0.2857142857142858</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>0.28571428571428581</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>16</v>
       </c>
@@ -2907,10 +2924,10 @@
         <v>10</v>
       </c>
       <c r="I87" s="2">
-        <v>0.2857142857142858</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>0.28571428571428581</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>16</v>
       </c>
@@ -2936,10 +2953,10 @@
         <v>10</v>
       </c>
       <c r="I88" s="2">
-        <v>0.2933333333333333</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>0.29333333333333328</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>16</v>
       </c>
@@ -2965,10 +2982,10 @@
         <v>10</v>
       </c>
       <c r="I89" s="2">
-        <v>0.2947368421052631</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>0.29473684210526307</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>16</v>
       </c>
@@ -2994,10 +3011,10 @@
         <v>10</v>
       </c>
       <c r="I90" s="2">
-        <v>0.2956521739130435</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>0.29565217391304349</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>16</v>
       </c>
@@ -3026,7 +3043,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>16</v>
       </c>
@@ -3052,10 +3069,10 @@
         <v>10</v>
       </c>
       <c r="I92" s="2">
-        <v>0.3058823529411765</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>0.30588235294117649</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>16</v>
       </c>
@@ -3081,10 +3098,10 @@
         <v>10</v>
       </c>
       <c r="I93" s="2">
-        <v>0.3090909090909091</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>0.30909090909090908</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>16</v>
       </c>
@@ -3110,10 +3127,10 @@
         <v>10</v>
       </c>
       <c r="I94" s="2">
-        <v>0.3076923076923077</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>0.30769230769230771</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>16</v>
       </c>
@@ -3139,10 +3156,10 @@
         <v>10</v>
       </c>
       <c r="I95" s="2">
-        <v>0.2666666666666667</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>0.26666666666666672</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>16</v>
       </c>
@@ -3168,10 +3185,10 @@
         <v>10</v>
       </c>
       <c r="I96" s="2">
-        <v>0.2666666666666667</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>0.26666666666666672</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>16</v>
       </c>
@@ -3197,10 +3214,10 @@
         <v>10</v>
       </c>
       <c r="I97" s="2">
-        <v>0.2666666666666667</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>0.26666666666666672</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>16</v>
       </c>
@@ -3226,10 +3243,10 @@
         <v>10</v>
       </c>
       <c r="I98" s="2">
-        <v>0.2782608695652174</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>0.27826086956521739</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>16</v>
       </c>
@@ -3255,10 +3272,10 @@
         <v>10</v>
       </c>
       <c r="I99" s="2">
-        <v>0.288</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>0.28799999999999998</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>16</v>
       </c>
@@ -3284,10 +3301,10 @@
         <v>10</v>
       </c>
       <c r="I100" s="2">
-        <v>0.2896551724137931</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>0.28965517241379313</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>16</v>
       </c>
@@ -3316,7 +3333,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>16</v>
       </c>
@@ -3345,7 +3362,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>16</v>
       </c>
@@ -3374,7 +3391,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>16</v>
       </c>
@@ -3400,10 +3417,10 @@
         <v>10</v>
       </c>
       <c r="I104" s="2">
-        <v>0.3090909090909091</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>0.30909090909090908</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>16</v>
       </c>
@@ -3429,10 +3446,10 @@
         <v>11</v>
       </c>
       <c r="I105" s="2">
-        <v>0.3035714285714285</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>0.30357142857142849</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>16</v>
       </c>
@@ -3458,10 +3475,10 @@
         <v>11</v>
       </c>
       <c r="I106" s="2">
-        <v>0.3055555555555556</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>0.30555555555555558</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>16</v>
       </c>
@@ -3487,10 +3504,10 @@
         <v>11</v>
       </c>
       <c r="I107" s="2">
-        <v>0.2946428571428572</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>0.29464285714285721</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>16</v>
       </c>
@@ -3516,10 +3533,10 @@
         <v>11</v>
       </c>
       <c r="I108" s="2">
-        <v>0.2946428571428572</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>0.29464285714285721</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>16</v>
       </c>
@@ -3545,10 +3562,10 @@
         <v>11</v>
       </c>
       <c r="I109" s="2">
-        <v>0.2980295566502463</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>0.29802955665024627</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>16</v>
       </c>
@@ -3574,10 +3591,10 @@
         <v>11</v>
       </c>
       <c r="I110" s="2">
-        <v>0.3021978021978022</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>0.30219780219780218</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>16</v>
       </c>
@@ -3603,10 +3620,10 @@
         <v>11</v>
       </c>
       <c r="I111" s="2">
-        <v>0.3055555555555556</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>0.30555555555555558</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>16</v>
       </c>
@@ -3632,10 +3649,10 @@
         <v>11</v>
       </c>
       <c r="I112" s="2">
-        <v>0.3074534161490683</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>0.30745341614906829</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>16</v>
       </c>
@@ -3661,10 +3678,10 @@
         <v>11</v>
       </c>
       <c r="I113" s="2">
-        <v>0.3086734693877551</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>0.30867346938775508</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>16</v>
       </c>
@@ -3690,10 +3707,10 @@
         <v>11</v>
       </c>
       <c r="I114" s="2">
-        <v>0.2806122448979592</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>0.28061224489795922</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>16</v>
       </c>
@@ -3719,10 +3736,10 @@
         <v>11</v>
       </c>
       <c r="I115" s="2">
-        <v>0.2837301587301587</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>0.28373015873015872</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>16</v>
       </c>
@@ -3751,7 +3768,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="117" spans="1:9">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>16</v>
       </c>
@@ -3777,10 +3794,10 @@
         <v>11</v>
       </c>
       <c r="I117" s="2">
-        <v>0.2870879120879121</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>0.28708791208791212</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>16</v>
       </c>
@@ -3806,10 +3823,10 @@
         <v>11</v>
       </c>
       <c r="I118" s="2">
-        <v>0.2946428571428572</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>0.29464285714285721</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>16</v>
       </c>
@@ -3835,10 +3852,10 @@
         <v>11</v>
       </c>
       <c r="I119" s="2">
-        <v>0.2985714285714285</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>0.29857142857142849</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>16</v>
       </c>
@@ -3864,10 +3881,10 @@
         <v>11</v>
       </c>
       <c r="I120" s="2">
-        <v>0.2980295566502463</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>0.29802955665024627</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>16</v>
       </c>
@@ -3893,10 +3910,10 @@
         <v>11</v>
       </c>
       <c r="I121" s="2">
-        <v>0.275</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>0.27500000000000002</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>16</v>
       </c>
@@ -3922,10 +3939,10 @@
         <v>11</v>
       </c>
       <c r="I122" s="2">
-        <v>0.2782738095238095</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>0.27827380952380948</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>16</v>
       </c>
@@ -3951,10 +3968,10 @@
         <v>11</v>
       </c>
       <c r="I123" s="2">
-        <v>0.2806122448979592</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>0.28061224489795922</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>16</v>
       </c>
@@ -3980,10 +3997,10 @@
         <v>11</v>
       </c>
       <c r="I124" s="2">
-        <v>0.2903726708074534</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>0.29037267080745338</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>16</v>
       </c>
@@ -4009,10 +4026,10 @@
         <v>11</v>
       </c>
       <c r="I125" s="2">
-        <v>0.291005291005291</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>0.29100529100529099</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>16</v>
       </c>
@@ -4038,10 +4055,10 @@
         <v>11</v>
       </c>
       <c r="I126" s="2">
-        <v>0.2993197278911565</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>0.29931972789115652</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>16</v>
       </c>
@@ -4067,10 +4084,10 @@
         <v>11</v>
       </c>
       <c r="I127" s="2">
-        <v>0.3021978021978022</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>0.30219780219780218</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>16</v>
       </c>
@@ -4096,10 +4113,10 @@
         <v>11</v>
       </c>
       <c r="I128" s="2">
-        <v>0.3086734693877551</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>0.30867346938775508</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>16</v>
       </c>
@@ -4125,10 +4142,10 @@
         <v>11</v>
       </c>
       <c r="I129" s="2">
-        <v>0.2678571428571428</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>0.26785714285714279</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>16</v>
       </c>
@@ -4154,10 +4171,10 @@
         <v>11</v>
       </c>
       <c r="I130" s="2">
-        <v>0.270935960591133</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>0.27093596059113301</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>16</v>
       </c>
@@ -4183,10 +4200,10 @@
         <v>11</v>
       </c>
       <c r="I131" s="2">
-        <v>0.2773109243697479</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>0.27731092436974791</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>16</v>
       </c>
@@ -4212,10 +4229,10 @@
         <v>11</v>
       </c>
       <c r="I132" s="2">
-        <v>0.2806122448979592</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>0.28061224489795922</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>16</v>
       </c>
@@ -4241,10 +4258,10 @@
         <v>11</v>
       </c>
       <c r="I133" s="2">
-        <v>0.2806122448979592</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>0.28061224489795922</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>16</v>
       </c>
@@ -4270,10 +4287,10 @@
         <v>11</v>
       </c>
       <c r="I134" s="2">
-        <v>0.2880952380952381</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>0.28809523809523813</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>16</v>
       </c>
@@ -4299,10 +4316,10 @@
         <v>11</v>
       </c>
       <c r="I135" s="2">
-        <v>0.2894736842105263</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>0.28947368421052633</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>16</v>
       </c>
@@ -4328,10 +4345,10 @@
         <v>11</v>
       </c>
       <c r="I136" s="2">
-        <v>0.2903726708074534</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>0.29037267080745338</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>16</v>
       </c>
@@ -4357,10 +4374,10 @@
         <v>11</v>
       </c>
       <c r="I137" s="2">
-        <v>0.2946428571428572</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>0.29464285714285721</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>16</v>
       </c>
@@ -4386,10 +4403,10 @@
         <v>11</v>
       </c>
       <c r="I138" s="2">
-        <v>0.3004201680672269</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>0.30042016806722688</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>16</v>
       </c>
@@ -4415,10 +4432,10 @@
         <v>11</v>
       </c>
       <c r="I139" s="2">
-        <v>0.3035714285714285</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>0.30357142857142849</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>16</v>
       </c>
@@ -4444,10 +4461,10 @@
         <v>11</v>
       </c>
       <c r="I140" s="2">
-        <v>0.3021978021978022</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>0.30219780219780218</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>16</v>
       </c>
@@ -4473,10 +4490,10 @@
         <v>11</v>
       </c>
       <c r="I141" s="2">
-        <v>0.3055555555555556</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>0.30555555555555558</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>16</v>
       </c>
@@ -4502,10 +4519,10 @@
         <v>11</v>
       </c>
       <c r="I142" s="2">
-        <v>0.3086734693877551</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>0.30867346938775508</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>16</v>
       </c>
@@ -4531,10 +4548,10 @@
         <v>11</v>
       </c>
       <c r="I143" s="2">
-        <v>0.2619047619047619</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>0.26190476190476192</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>16</v>
       </c>
@@ -4560,10 +4577,10 @@
         <v>11</v>
       </c>
       <c r="I144" s="2">
-        <v>0.2619047619047619</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>0.26190476190476192</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>16</v>
       </c>
@@ -4589,10 +4606,10 @@
         <v>11</v>
       </c>
       <c r="I145" s="2">
-        <v>0.2619047619047619</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>0.26190476190476192</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>16</v>
       </c>
@@ -4618,10 +4635,10 @@
         <v>11</v>
       </c>
       <c r="I146" s="2">
-        <v>0.2732919254658385</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>0.27329192546583853</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>16</v>
       </c>
@@ -4647,10 +4664,10 @@
         <v>11</v>
       </c>
       <c r="I147" s="2">
-        <v>0.2828571428571429</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>0.28285714285714292</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>16</v>
       </c>
@@ -4676,10 +4693,10 @@
         <v>11</v>
       </c>
       <c r="I148" s="2">
-        <v>0.2844827586206897</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>0.28448275862068972</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>16</v>
       </c>
@@ -4705,10 +4722,10 @@
         <v>11</v>
       </c>
       <c r="I149" s="2">
-        <v>0.2946428571428572</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>0.29464285714285721</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>16</v>
       </c>
@@ -4734,10 +4751,10 @@
         <v>11</v>
       </c>
       <c r="I150" s="2">
-        <v>0.2946428571428572</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>0.29464285714285721</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>16</v>
       </c>
@@ -4763,10 +4780,10 @@
         <v>11</v>
       </c>
       <c r="I151" s="2">
-        <v>0.2946428571428572</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>0.29464285714285721</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>16</v>
       </c>
@@ -4792,10 +4809,10 @@
         <v>11</v>
       </c>
       <c r="I152" s="2">
-        <v>0.3035714285714285</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>0.30357142857142849</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>16</v>
       </c>
@@ -4821,10 +4838,10 @@
         <v>11</v>
       </c>
       <c r="I153" s="2">
-        <v>0.3055555555555556</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>0.30555555555555558</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>16</v>
       </c>
@@ -4850,10 +4867,10 @@
         <v>11</v>
       </c>
       <c r="I154" s="2">
-        <v>0.303448275862069</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>0.30344827586206902</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>16</v>
       </c>
@@ -4879,10 +4896,10 @@
         <v>11</v>
       </c>
       <c r="I155" s="2">
-        <v>0.303448275862069</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>0.30344827586206902</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>16</v>
       </c>
@@ -4908,10 +4925,10 @@
         <v>11</v>
       </c>
       <c r="I156" s="2">
-        <v>0.3063660477453581</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>0.30636604774535808</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>16</v>
       </c>
@@ -4937,10 +4954,10 @@
         <v>11</v>
       </c>
       <c r="I157" s="2">
-        <v>0.293103448275862</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+        <v>0.29310344827586199</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>16</v>
       </c>
@@ -4969,7 +4986,7 @@
         <v>0.2950191570881226</v>
       </c>
     </row>
-    <row r="159" spans="1:9">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>16</v>
       </c>
@@ -4995,10 +5012,10 @@
         <v>11</v>
       </c>
       <c r="I159" s="2">
-        <v>0.303448275862069</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+        <v>0.30344827586206902</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>16</v>
       </c>
@@ -5024,10 +5041,10 @@
         <v>11</v>
       </c>
       <c r="I160" s="2">
-        <v>0.3070607553366174</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+        <v>0.30706075533661742</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>16</v>
       </c>
@@ -5053,10 +5070,10 @@
         <v>11</v>
       </c>
       <c r="I161" s="2">
-        <v>0.3063660477453581</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
+        <v>0.30636604774535808</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>16</v>
       </c>
@@ -5082,10 +5099,10 @@
         <v>11</v>
       </c>
       <c r="I162" s="2">
-        <v>0.3090676883780332</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+        <v>0.30906768837803322</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>16</v>
       </c>
@@ -5111,10 +5128,10 @@
         <v>11</v>
       </c>
       <c r="I163" s="2">
-        <v>0.2844827586206896</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+        <v>0.28448275862068961</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>16</v>
       </c>
@@ -5140,10 +5157,10 @@
         <v>11</v>
       </c>
       <c r="I164" s="2">
-        <v>0.2844827586206896</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+        <v>0.28448275862068961</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>16</v>
       </c>
@@ -5169,10 +5186,10 @@
         <v>11</v>
       </c>
       <c r="I165" s="2">
-        <v>0.2877526753864447</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
+        <v>0.28775267538644472</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>16</v>
       </c>
@@ -5198,10 +5215,10 @@
         <v>11</v>
       </c>
       <c r="I166" s="2">
-        <v>0.2917771883289125</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
+        <v>0.29177718832891247</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>16</v>
       </c>
@@ -5230,7 +5247,7 @@
         <v>0.2950191570881226</v>
       </c>
     </row>
-    <row r="168" spans="1:9">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>16</v>
       </c>
@@ -5256,10 +5273,10 @@
         <v>11</v>
       </c>
       <c r="I168" s="2">
-        <v>0.2968515742128935</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
+        <v>0.29685157421289349</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>16</v>
       </c>
@@ -5285,10 +5302,10 @@
         <v>11</v>
       </c>
       <c r="I169" s="2">
-        <v>0.2980295566502463</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
+        <v>0.29802955665024627</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>16</v>
       </c>
@@ -5314,10 +5331,10 @@
         <v>11</v>
       </c>
       <c r="I170" s="2">
-        <v>0.3070607553366174</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
+        <v>0.30706075533661742</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>16</v>
       </c>
@@ -5343,10 +5360,10 @@
         <v>11</v>
       </c>
       <c r="I171" s="2">
-        <v>0.3090676883780332</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9">
+        <v>0.30906768837803322</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>16</v>
       </c>
@@ -5372,10 +5389,10 @@
         <v>11</v>
       </c>
       <c r="I172" s="2">
-        <v>0.270935960591133</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9">
+        <v>0.27093596059113301</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>16</v>
       </c>
@@ -5401,10 +5418,10 @@
         <v>11</v>
       </c>
       <c r="I173" s="2">
-        <v>0.2739463601532567</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9">
+        <v>0.27394636015325668</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>16</v>
       </c>
@@ -5430,10 +5447,10 @@
         <v>11</v>
       </c>
       <c r="I174" s="2">
-        <v>0.2758620689655172</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9">
+        <v>0.27586206896551718</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>16</v>
       </c>
@@ -5459,10 +5476,10 @@
         <v>11</v>
       </c>
       <c r="I175" s="2">
-        <v>0.2771883289124668</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9">
+        <v>0.27718832891246681</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>16</v>
       </c>
@@ -5488,10 +5505,10 @@
         <v>11</v>
       </c>
       <c r="I176" s="2">
-        <v>0.2844827586206896</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9">
+        <v>0.28448275862068961</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>16</v>
       </c>
@@ -5517,10 +5534,10 @@
         <v>11</v>
       </c>
       <c r="I177" s="2">
-        <v>0.2882758620689655</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9">
+        <v>0.28827586206896549</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>16</v>
       </c>
@@ -5546,10 +5563,10 @@
         <v>11</v>
       </c>
       <c r="I178" s="2">
-        <v>0.2877526753864447</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9">
+        <v>0.28775267538644472</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>16</v>
       </c>
@@ -5575,10 +5592,10 @@
         <v>11</v>
       </c>
       <c r="I179" s="2">
-        <v>0.2994555353901996</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9">
+        <v>0.29945553539019959</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>16</v>
       </c>
@@ -5604,10 +5621,10 @@
         <v>11</v>
       </c>
       <c r="I180" s="2">
-        <v>0.3002873563218391</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9">
+        <v>0.30028735632183912</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>16</v>
       </c>
@@ -5633,10 +5650,10 @@
         <v>11</v>
       </c>
       <c r="I181" s="2">
-        <v>0.3008323424494649</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9">
+        <v>0.30083234244946488</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>16</v>
       </c>
@@ -5662,10 +5679,10 @@
         <v>11</v>
       </c>
       <c r="I182" s="2">
-        <v>0.3081896551724138</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9">
+        <v>0.30818965517241381</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>16</v>
       </c>
@@ -5691,10 +5708,10 @@
         <v>11</v>
       </c>
       <c r="I183" s="2">
-        <v>0.2655172413793103</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9">
+        <v>0.26551724137931032</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>16</v>
       </c>
@@ -5720,10 +5737,10 @@
         <v>11</v>
       </c>
       <c r="I184" s="2">
-        <v>0.2686781609195402</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9">
+        <v>0.26867816091954022</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>16</v>
       </c>
@@ -5749,10 +5766,10 @@
         <v>11</v>
       </c>
       <c r="I185" s="2">
-        <v>0.270935960591133</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9">
+        <v>0.27093596059113301</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>16</v>
       </c>
@@ -5778,10 +5795,10 @@
         <v>11</v>
       </c>
       <c r="I186" s="2">
-        <v>0.280359820089955</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9">
+        <v>0.28035982008995503</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>16</v>
       </c>
@@ -5807,10 +5824,10 @@
         <v>11</v>
       </c>
       <c r="I187" s="2">
-        <v>0.280970625798212</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9">
+        <v>0.28097062579821203</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>16</v>
       </c>
@@ -5836,10 +5853,10 @@
         <v>11</v>
       </c>
       <c r="I188" s="2">
-        <v>0.2889983579638752</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9">
+        <v>0.28899835796387519</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>16</v>
       </c>
@@ -5865,10 +5882,10 @@
         <v>11</v>
       </c>
       <c r="I189" s="2">
-        <v>0.2917771883289125</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9">
+        <v>0.29177718832891247</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>16</v>
       </c>
@@ -5894,10 +5911,10 @@
         <v>11</v>
       </c>
       <c r="I190" s="2">
-        <v>0.2980295566502463</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9">
+        <v>0.29802955665024627</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>16</v>
       </c>
@@ -5923,10 +5940,10 @@
         <v>11</v>
       </c>
       <c r="I191" s="2">
-        <v>0.2994555353901996</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9">
+        <v>0.29945553539019959</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>16</v>
       </c>
@@ -5952,10 +5969,10 @@
         <v>11</v>
       </c>
       <c r="I192" s="2">
-        <v>0.3002873563218391</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9">
+        <v>0.30028735632183912</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>16</v>
       </c>
@@ -5981,10 +5998,10 @@
         <v>11</v>
       </c>
       <c r="I193" s="2">
-        <v>0.303448275862069</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9">
+        <v>0.30344827586206902</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>16</v>
       </c>
@@ -6010,10 +6027,10 @@
         <v>11</v>
       </c>
       <c r="I194" s="2">
-        <v>0.2586206896551724</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9">
+        <v>0.25862068965517238</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>16</v>
       </c>
@@ -6039,10 +6056,10 @@
         <v>11</v>
       </c>
       <c r="I195" s="2">
-        <v>0.2615933412604043</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9">
+        <v>0.26159334126040429</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>16</v>
       </c>
@@ -6068,10 +6085,10 @@
         <v>11</v>
       </c>
       <c r="I196" s="2">
-        <v>0.2677484787018256</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9">
+        <v>0.26774847870182561</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>16</v>
       </c>
@@ -6097,10 +6114,10 @@
         <v>11</v>
       </c>
       <c r="I197" s="2">
-        <v>0.270935960591133</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9">
+        <v>0.27093596059113301</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>16</v>
       </c>
@@ -6126,10 +6143,10 @@
         <v>11</v>
       </c>
       <c r="I198" s="2">
-        <v>0.270935960591133</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9">
+        <v>0.27093596059113301</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>16</v>
       </c>
@@ -6155,10 +6172,10 @@
         <v>11</v>
       </c>
       <c r="I199" s="2">
-        <v>0.2781609195402299</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9">
+        <v>0.27816091954022992</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>16</v>
       </c>
@@ -6184,10 +6201,10 @@
         <v>11</v>
       </c>
       <c r="I200" s="2">
-        <v>0.279491833030853</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9">
+        <v>0.27949183303085301</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>16</v>
       </c>
@@ -6213,10 +6230,10 @@
         <v>11</v>
       </c>
       <c r="I201" s="2">
-        <v>0.280359820089955</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9">
+        <v>0.28035982008995503</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>16</v>
       </c>
@@ -6242,10 +6259,10 @@
         <v>11</v>
       </c>
       <c r="I202" s="2">
-        <v>0.2844827586206896</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9">
+        <v>0.28448275862068961</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>16</v>
       </c>
@@ -6271,10 +6288,10 @@
         <v>11</v>
       </c>
       <c r="I203" s="2">
-        <v>0.2900608519269777</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9">
+        <v>0.29006085192697773</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>16</v>
       </c>
@@ -6300,10 +6317,10 @@
         <v>11</v>
       </c>
       <c r="I204" s="2">
-        <v>0.293103448275862</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9">
+        <v>0.29310344827586199</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>16</v>
       </c>
@@ -6329,10 +6346,10 @@
         <v>11</v>
       </c>
       <c r="I205" s="2">
-        <v>0.2917771883289125</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9">
+        <v>0.29177718832891247</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>16</v>
       </c>
@@ -6361,7 +6378,7 @@
         <v>0.2950191570881226</v>
       </c>
     </row>
-    <row r="207" spans="1:9">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>16</v>
       </c>
@@ -6387,10 +6404,10 @@
         <v>11</v>
       </c>
       <c r="I207" s="2">
-        <v>0.2980295566502463</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9">
+        <v>0.29802955665024627</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>16</v>
       </c>
@@ -6416,10 +6433,10 @@
         <v>11</v>
       </c>
       <c r="I208" s="2">
-        <v>0.303448275862069</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9">
+        <v>0.30344827586206902</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>16</v>
       </c>
@@ -6445,10 +6462,10 @@
         <v>11</v>
       </c>
       <c r="I209" s="2">
-        <v>0.303448275862069</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9">
+        <v>0.30344827586206902</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>16</v>
       </c>
@@ -6474,10 +6491,10 @@
         <v>11</v>
       </c>
       <c r="I210" s="2">
-        <v>0.2528735632183908</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9">
+        <v>0.25287356321839077</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>16</v>
       </c>
@@ -6503,10 +6520,10 @@
         <v>11</v>
       </c>
       <c r="I211" s="2">
-        <v>0.2528735632183908</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9">
+        <v>0.25287356321839077</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>16</v>
       </c>
@@ -6532,10 +6549,10 @@
         <v>11</v>
       </c>
       <c r="I212" s="2">
-        <v>0.2528735632183908</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9">
+        <v>0.25287356321839077</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>16</v>
       </c>
@@ -6561,10 +6578,10 @@
         <v>11</v>
       </c>
       <c r="I213" s="2">
-        <v>0.2638680659670165</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9">
+        <v>0.26386806596701651</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>16</v>
       </c>
@@ -6590,10 +6607,10 @@
         <v>11</v>
       </c>
       <c r="I214" s="2">
-        <v>0.273103448275862</v>
-      </c>
-    </row>
-    <row r="215" spans="1:9">
+        <v>0.27310344827586203</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>16</v>
       </c>
@@ -6619,10 +6636,10 @@
         <v>11</v>
       </c>
       <c r="I215" s="2">
-        <v>0.2746730083234245</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9">
+        <v>0.27467300832342451</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>16</v>
       </c>
@@ -6648,10 +6665,10 @@
         <v>11</v>
       </c>
       <c r="I216" s="2">
-        <v>0.2844827586206896</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9">
+        <v>0.28448275862068961</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>16</v>
       </c>
@@ -6677,10 +6694,10 @@
         <v>11</v>
       </c>
       <c r="I217" s="2">
-        <v>0.2844827586206896</v>
-      </c>
-    </row>
-    <row r="218" spans="1:9">
+        <v>0.28448275862068961</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>16</v>
       </c>
@@ -6706,10 +6723,10 @@
         <v>11</v>
       </c>
       <c r="I218" s="2">
-        <v>0.2844827586206896</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9">
+        <v>0.28448275862068961</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>16</v>
       </c>
@@ -6735,10 +6752,10 @@
         <v>11</v>
       </c>
       <c r="I219" s="2">
-        <v>0.293103448275862</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9">
+        <v>0.29310344827586199</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>16</v>
       </c>
@@ -6767,7 +6784,7 @@
         <v>0.2950191570881226</v>
       </c>
     </row>
-    <row r="221" spans="1:9">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>16</v>
       </c>
@@ -6793,10 +6810,10 @@
         <v>11</v>
       </c>
       <c r="I221" s="2">
-        <v>0.303448275862069</v>
-      </c>
-    </row>
-    <row r="222" spans="1:9">
+        <v>0.30344827586206902</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>16</v>
       </c>
@@ -6822,10 +6839,10 @@
         <v>11</v>
       </c>
       <c r="I222" s="2">
-        <v>0.303448275862069</v>
-      </c>
-    </row>
-    <row r="223" spans="1:9">
+        <v>0.30344827586206902</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>16</v>
       </c>
@@ -6851,10 +6868,10 @@
         <v>11</v>
       </c>
       <c r="I223" s="2">
-        <v>0.3063660477453581</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9">
+        <v>0.30636604774535808</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>16</v>
       </c>
@@ -6880,10 +6897,10 @@
         <v>10</v>
       </c>
       <c r="I224" s="2">
-        <v>0.3021978021978022</v>
-      </c>
-    </row>
-    <row r="225" spans="1:9">
+        <v>0.30219780219780218</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>16</v>
       </c>
@@ -6909,10 +6926,10 @@
         <v>10</v>
       </c>
       <c r="I225" s="2">
-        <v>0.3061224489795918</v>
-      </c>
-    </row>
-    <row r="226" spans="1:9">
+        <v>0.30612244897959179</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>16</v>
       </c>
@@ -6938,10 +6955,10 @@
         <v>10</v>
       </c>
       <c r="I226" s="2">
-        <v>0.3061224489795918</v>
-      </c>
-    </row>
-    <row r="227" spans="1:9">
+        <v>0.30612244897959179</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>16</v>
       </c>
@@ -6967,10 +6984,10 @@
         <v>10</v>
       </c>
       <c r="I227" s="2">
-        <v>0.3084415584415585</v>
-      </c>
-    </row>
-    <row r="228" spans="1:9">
+        <v>0.30844155844155852</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>16</v>
       </c>
@@ -6996,10 +7013,10 @@
         <v>10</v>
       </c>
       <c r="I228" s="2">
-        <v>0.3061224489795918</v>
-      </c>
-    </row>
-    <row r="229" spans="1:9">
+        <v>0.30612244897959179</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>16</v>
       </c>
@@ -7025,10 +7042,10 @@
         <v>10</v>
       </c>
       <c r="I229" s="2">
-        <v>0.3078817733990148</v>
-      </c>
-    </row>
-    <row r="230" spans="1:9">
+        <v>0.30788177339901479</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>16</v>
       </c>
@@ -7054,10 +7071,10 @@
         <v>10</v>
       </c>
       <c r="I230" s="2">
-        <v>0.2941176470588235</v>
-      </c>
-    </row>
-    <row r="231" spans="1:9">
+        <v>0.29411764705882348</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>16</v>
       </c>
@@ -7083,10 +7100,10 @@
         <v>10</v>
       </c>
       <c r="I231" s="2">
-        <v>0.2950310559006211</v>
-      </c>
-    </row>
-    <row r="232" spans="1:9">
+        <v>0.29503105590062112</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>16</v>
       </c>
@@ -7112,10 +7129,10 @@
         <v>10</v>
       </c>
       <c r="I232" s="2">
-        <v>0.2976190476190476</v>
-      </c>
-    </row>
-    <row r="233" spans="1:9">
+        <v>0.29761904761904762</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>16</v>
       </c>
@@ -7141,10 +7158,10 @@
         <v>10</v>
       </c>
       <c r="I233" s="2">
-        <v>0.3061224489795918</v>
-      </c>
-    </row>
-    <row r="234" spans="1:9">
+        <v>0.30612244897959179</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>16</v>
       </c>
@@ -7170,10 +7187,10 @@
         <v>10</v>
       </c>
       <c r="I234" s="2">
-        <v>0.3084415584415585</v>
-      </c>
-    </row>
-    <row r="235" spans="1:9">
+        <v>0.30844155844155852</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>16</v>
       </c>
@@ -7199,10 +7216,10 @@
         <v>10</v>
       </c>
       <c r="I235" s="2">
-        <v>0.3078817733990148</v>
-      </c>
-    </row>
-    <row r="236" spans="1:9">
+        <v>0.30788177339901479</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>16</v>
       </c>
@@ -7228,10 +7245,10 @@
         <v>10</v>
       </c>
       <c r="I236" s="2">
-        <v>0.2857142857142858</v>
-      </c>
-    </row>
-    <row r="237" spans="1:9">
+        <v>0.28571428571428581</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>16</v>
       </c>
@@ -7257,10 +7274,10 @@
         <v>10</v>
       </c>
       <c r="I237" s="2">
-        <v>0.2857142857142858</v>
-      </c>
-    </row>
-    <row r="238" spans="1:9">
+        <v>0.28571428571428581</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>16</v>
       </c>
@@ -7286,10 +7303,10 @@
         <v>10</v>
       </c>
       <c r="I238" s="2">
-        <v>0.2884615384615385</v>
-      </c>
-    </row>
-    <row r="239" spans="1:9">
+        <v>0.28846153846153849</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>16</v>
       </c>
@@ -7315,10 +7332,10 @@
         <v>10</v>
       </c>
       <c r="I239" s="2">
-        <v>0.2976190476190476</v>
-      </c>
-    </row>
-    <row r="240" spans="1:9">
+        <v>0.29761904761904762</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>16</v>
       </c>
@@ -7344,10 +7361,10 @@
         <v>10</v>
       </c>
       <c r="I240" s="2">
-        <v>0.2976190476190476</v>
-      </c>
-    </row>
-    <row r="241" spans="1:9">
+        <v>0.29761904761904762</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>16</v>
       </c>
@@ -7376,7 +7393,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="242" spans="1:9">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>16</v>
       </c>
@@ -7402,10 +7419,10 @@
         <v>10</v>
       </c>
       <c r="I242" s="2">
-        <v>0.3061224489795918</v>
-      </c>
-    </row>
-    <row r="243" spans="1:9">
+        <v>0.30612244897959179</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>16</v>
       </c>
@@ -7431,10 +7448,10 @@
         <v>10</v>
       </c>
       <c r="I243" s="2">
-        <v>0.3095238095238095</v>
-      </c>
-    </row>
-    <row r="244" spans="1:9">
+        <v>0.30952380952380948</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>16</v>
       </c>
@@ -7460,10 +7477,10 @@
         <v>10</v>
       </c>
       <c r="I244" s="2">
-        <v>0.3084415584415585</v>
-      </c>
-    </row>
-    <row r="245" spans="1:9">
+        <v>0.30844155844155852</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>16</v>
       </c>
@@ -7489,10 +7506,10 @@
         <v>10</v>
       </c>
       <c r="I245" s="2">
-        <v>0.275974025974026</v>
-      </c>
-    </row>
-    <row r="246" spans="1:9">
+        <v>0.27597402597402598</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>16</v>
       </c>
@@ -7518,10 +7535,10 @@
         <v>10</v>
       </c>
       <c r="I246" s="2">
-        <v>0.2777777777777778</v>
-      </c>
-    </row>
-    <row r="247" spans="1:9">
+        <v>0.27777777777777779</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>16</v>
       </c>
@@ -7547,10 +7564,10 @@
         <v>10</v>
       </c>
       <c r="I247" s="2">
-        <v>0.2857142857142858</v>
-      </c>
-    </row>
-    <row r="248" spans="1:9">
+        <v>0.28571428571428581</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>16</v>
       </c>
@@ -7576,10 +7593,10 @@
         <v>10</v>
       </c>
       <c r="I248" s="2">
-        <v>0.2891156462585034</v>
-      </c>
-    </row>
-    <row r="249" spans="1:9">
+        <v>0.28911564625850339</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>16</v>
       </c>
@@ -7605,10 +7622,10 @@
         <v>10</v>
       </c>
       <c r="I249" s="2">
-        <v>0.2884615384615385</v>
-      </c>
-    </row>
-    <row r="250" spans="1:9">
+        <v>0.28846153846153849</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>16</v>
       </c>
@@ -7634,10 +7651,10 @@
         <v>10</v>
       </c>
       <c r="I250" s="2">
-        <v>0.291005291005291</v>
-      </c>
-    </row>
-    <row r="251" spans="1:9">
+        <v>0.29100529100529099</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>16</v>
       </c>
@@ -7663,10 +7680,10 @@
         <v>10</v>
       </c>
       <c r="I251" s="2">
-        <v>0.2976190476190476</v>
-      </c>
-    </row>
-    <row r="252" spans="1:9">
+        <v>0.29761904761904762</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>16</v>
       </c>
@@ -7692,10 +7709,10 @@
         <v>10</v>
       </c>
       <c r="I252" s="2">
-        <v>0.2976190476190476</v>
-      </c>
-    </row>
-    <row r="253" spans="1:9">
+        <v>0.29761904761904762</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>16</v>
       </c>
@@ -7724,7 +7741,7 @@
         <v>0.3007518796992481</v>
       </c>
     </row>
-    <row r="254" spans="1:9">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>16</v>
       </c>
@@ -7753,7 +7770,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="255" spans="1:9">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>16</v>
       </c>
@@ -7779,10 +7796,10 @@
         <v>10</v>
       </c>
       <c r="I255" s="2">
-        <v>0.3021978021978022</v>
-      </c>
-    </row>
-    <row r="256" spans="1:9">
+        <v>0.30219780219780218</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>16</v>
       </c>
@@ -7808,10 +7825,10 @@
         <v>10</v>
       </c>
       <c r="I256" s="2">
-        <v>0.3095238095238095</v>
-      </c>
-    </row>
-    <row r="257" spans="1:9">
+        <v>0.30952380952380948</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>16</v>
       </c>
@@ -7837,10 +7854,10 @@
         <v>10</v>
       </c>
       <c r="I257" s="2">
-        <v>0.2678571428571428</v>
-      </c>
-    </row>
-    <row r="258" spans="1:9">
+        <v>0.26785714285714279</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>16</v>
       </c>
@@ -7866,10 +7883,10 @@
         <v>10</v>
       </c>
       <c r="I258" s="2">
-        <v>0.2678571428571428</v>
-      </c>
-    </row>
-    <row r="259" spans="1:9">
+        <v>0.26785714285714279</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>16</v>
       </c>
@@ -7895,10 +7912,10 @@
         <v>10</v>
       </c>
       <c r="I259" s="2">
-        <v>0.270935960591133</v>
-      </c>
-    </row>
-    <row r="260" spans="1:9">
+        <v>0.27093596059113301</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>16</v>
       </c>
@@ -7924,10 +7941,10 @@
         <v>10</v>
       </c>
       <c r="I260" s="2">
-        <v>0.2747252747252747</v>
-      </c>
-    </row>
-    <row r="261" spans="1:9">
+        <v>0.27472527472527469</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>16</v>
       </c>
@@ -7953,10 +7970,10 @@
         <v>10</v>
       </c>
       <c r="I261" s="2">
-        <v>0.2777777777777778</v>
-      </c>
-    </row>
-    <row r="262" spans="1:9">
+        <v>0.27777777777777779</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>16</v>
       </c>
@@ -7982,10 +7999,10 @@
         <v>10</v>
       </c>
       <c r="I262" s="2">
-        <v>0.2795031055900621</v>
-      </c>
-    </row>
-    <row r="263" spans="1:9">
+        <v>0.27950310559006208</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>16</v>
       </c>
@@ -8011,10 +8028,10 @@
         <v>10</v>
       </c>
       <c r="I263" s="2">
-        <v>0.2806122448979592</v>
-      </c>
-    </row>
-    <row r="264" spans="1:9">
+        <v>0.28061224489795922</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>16</v>
       </c>
@@ -8040,10 +8057,10 @@
         <v>10</v>
       </c>
       <c r="I264" s="2">
-        <v>0.2891156462585034</v>
-      </c>
-    </row>
-    <row r="265" spans="1:9">
+        <v>0.28911564625850339</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>16</v>
       </c>
@@ -8069,10 +8086,10 @@
         <v>10</v>
       </c>
       <c r="I265" s="2">
-        <v>0.291005291005291</v>
-      </c>
-    </row>
-    <row r="266" spans="1:9">
+        <v>0.29100529100529099</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>16</v>
       </c>
@@ -8098,10 +8115,10 @@
         <v>10</v>
       </c>
       <c r="I266" s="2">
-        <v>0.2976190476190476</v>
-      </c>
-    </row>
-    <row r="267" spans="1:9">
+        <v>0.29761904761904762</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>16</v>
       </c>
@@ -8130,7 +8147,7 @@
         <v>0.3007518796992481</v>
       </c>
     </row>
-    <row r="268" spans="1:9">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>16</v>
       </c>
@@ -8156,10 +8173,10 @@
         <v>10</v>
       </c>
       <c r="I268" s="2">
-        <v>0.3021978021978022</v>
-      </c>
-    </row>
-    <row r="269" spans="1:9">
+        <v>0.30219780219780218</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>16</v>
       </c>
@@ -8185,10 +8202,10 @@
         <v>10</v>
       </c>
       <c r="I269" s="2">
-        <v>0.3095238095238095</v>
-      </c>
-    </row>
-    <row r="270" spans="1:9">
+        <v>0.30952380952380948</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>16</v>
       </c>
@@ -8214,10 +8231,10 @@
         <v>10</v>
       </c>
       <c r="I270" s="2">
-        <v>0.2551020408163265</v>
-      </c>
-    </row>
-    <row r="271" spans="1:9">
+        <v>0.25510204081632648</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>16</v>
       </c>
@@ -8243,10 +8260,10 @@
         <v>10</v>
       </c>
       <c r="I271" s="2">
-        <v>0.257936507936508</v>
-      </c>
-    </row>
-    <row r="272" spans="1:9">
+        <v>0.25793650793650802</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>16</v>
       </c>
@@ -8272,10 +8289,10 @@
         <v>10</v>
       </c>
       <c r="I272" s="2">
-        <v>0.2597402597402598</v>
-      </c>
-    </row>
-    <row r="273" spans="1:9">
+        <v>0.25974025974025983</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>16</v>
       </c>
@@ -8301,10 +8318,10 @@
         <v>10</v>
       </c>
       <c r="I273" s="2">
-        <v>0.260989010989011</v>
-      </c>
-    </row>
-    <row r="274" spans="1:9">
+        <v>0.26098901098901101</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>16</v>
       </c>
@@ -8330,10 +8347,10 @@
         <v>10</v>
       </c>
       <c r="I274" s="2">
-        <v>0.2678571428571428</v>
-      </c>
-    </row>
-    <row r="275" spans="1:9">
+        <v>0.26785714285714279</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>16</v>
       </c>
@@ -8359,10 +8376,10 @@
         <v>10</v>
       </c>
       <c r="I275" s="2">
-        <v>0.2714285714285715</v>
-      </c>
-    </row>
-    <row r="276" spans="1:9">
+        <v>0.27142857142857152</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>16</v>
       </c>
@@ -8388,10 +8405,10 @@
         <v>10</v>
       </c>
       <c r="I276" s="2">
-        <v>0.270935960591133</v>
-      </c>
-    </row>
-    <row r="277" spans="1:9">
+        <v>0.27093596059113301</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>16</v>
       </c>
@@ -8417,10 +8434,10 @@
         <v>10</v>
       </c>
       <c r="I277" s="2">
-        <v>0.2819548872180451</v>
-      </c>
-    </row>
-    <row r="278" spans="1:9">
+        <v>0.28195488721804512</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>16</v>
       </c>
@@ -8446,10 +8463,10 @@
         <v>10</v>
       </c>
       <c r="I278" s="2">
-        <v>0.2827380952380952</v>
-      </c>
-    </row>
-    <row r="279" spans="1:9">
+        <v>0.28273809523809518</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>16</v>
       </c>
@@ -8475,10 +8492,10 @@
         <v>10</v>
       </c>
       <c r="I279" s="2">
-        <v>0.2832512315270936</v>
-      </c>
-    </row>
-    <row r="280" spans="1:9">
+        <v>0.28325123152709358</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>16</v>
       </c>
@@ -8504,10 +8521,10 @@
         <v>10</v>
       </c>
       <c r="I280" s="2">
-        <v>0.2901785714285715</v>
-      </c>
-    </row>
-    <row r="281" spans="1:9">
+        <v>0.29017857142857151</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>16</v>
       </c>
@@ -8533,10 +8550,10 @@
         <v>10</v>
       </c>
       <c r="I281" s="2">
-        <v>0.2922077922077922</v>
-      </c>
-    </row>
-    <row r="282" spans="1:9">
+        <v>0.29220779220779219</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>16</v>
       </c>
@@ -8562,10 +8579,10 @@
         <v>10</v>
       </c>
       <c r="I282" s="2">
-        <v>0.2933673469387755</v>
-      </c>
-    </row>
-    <row r="283" spans="1:9">
+        <v>0.29336734693877548</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>16</v>
       </c>
@@ -8591,10 +8608,10 @@
         <v>10</v>
       </c>
       <c r="I283" s="2">
-        <v>0.2976190476190476</v>
-      </c>
-    </row>
-    <row r="284" spans="1:9">
+        <v>0.29761904761904762</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>16</v>
       </c>
@@ -8623,7 +8640,7 @@
         <v>0.3007518796992481</v>
       </c>
     </row>
-    <row r="285" spans="1:9">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>16</v>
       </c>
@@ -8649,10 +8666,10 @@
         <v>10</v>
       </c>
       <c r="I285" s="2">
-        <v>0.3035714285714285</v>
-      </c>
-    </row>
-    <row r="286" spans="1:9">
+        <v>0.30357142857142849</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>16</v>
       </c>
@@ -8678,10 +8695,10 @@
         <v>10</v>
       </c>
       <c r="I286" s="2">
-        <v>0.3021978021978022</v>
-      </c>
-    </row>
-    <row r="287" spans="1:9">
+        <v>0.30219780219780218</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>16</v>
       </c>
@@ -8707,10 +8724,10 @@
         <v>10</v>
       </c>
       <c r="I287" s="2">
-        <v>0.3042328042328042</v>
-      </c>
-    </row>
-    <row r="288" spans="1:9">
+        <v>0.30423280423280419</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>16</v>
       </c>
@@ -8739,7 +8756,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="289" spans="1:9">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>16</v>
       </c>
@@ -8765,10 +8782,10 @@
         <v>10</v>
       </c>
       <c r="I289" s="2">
-        <v>0.2529761904761905</v>
-      </c>
-    </row>
-    <row r="290" spans="1:9">
+        <v>0.25297619047619052</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>16</v>
       </c>
@@ -8794,10 +8811,10 @@
         <v>10</v>
       </c>
       <c r="I290" s="2">
-        <v>0.2551020408163265</v>
-      </c>
-    </row>
-    <row r="291" spans="1:9">
+        <v>0.25510204081632648</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>16</v>
       </c>
@@ -8826,7 +8843,7 @@
         <v>0.2639751552795031</v>
       </c>
     </row>
-    <row r="292" spans="1:9">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>16</v>
       </c>
@@ -8852,10 +8869,10 @@
         <v>10</v>
       </c>
       <c r="I292" s="2">
-        <v>0.2645502645502645</v>
-      </c>
-    </row>
-    <row r="293" spans="1:9">
+        <v>0.26455026455026448</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>16</v>
       </c>
@@ -8881,10 +8898,10 @@
         <v>10</v>
       </c>
       <c r="I293" s="2">
-        <v>0.2721088435374149</v>
-      </c>
-    </row>
-    <row r="294" spans="1:9">
+        <v>0.27210884353741488</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>16</v>
       </c>
@@ -8910,10 +8927,10 @@
         <v>10</v>
       </c>
       <c r="I294" s="2">
-        <v>0.2747252747252747</v>
-      </c>
-    </row>
-    <row r="295" spans="1:9">
+        <v>0.27472527472527469</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>16</v>
       </c>
@@ -8939,10 +8956,10 @@
         <v>10</v>
       </c>
       <c r="I295" s="2">
-        <v>0.2806122448979592</v>
-      </c>
-    </row>
-    <row r="296" spans="1:9">
+        <v>0.28061224489795922</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>16</v>
       </c>
@@ -8968,10 +8985,10 @@
         <v>10</v>
       </c>
       <c r="I296" s="2">
-        <v>0.2819548872180451</v>
-      </c>
-    </row>
-    <row r="297" spans="1:9">
+        <v>0.28195488721804512</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>16</v>
       </c>
@@ -8997,10 +9014,10 @@
         <v>10</v>
       </c>
       <c r="I297" s="2">
-        <v>0.2827380952380952</v>
-      </c>
-    </row>
-    <row r="298" spans="1:9">
+        <v>0.28273809523809518</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>16</v>
       </c>
@@ -9026,10 +9043,10 @@
         <v>10</v>
       </c>
       <c r="I298" s="2">
-        <v>0.2857142857142858</v>
-      </c>
-    </row>
-    <row r="299" spans="1:9">
+        <v>0.28571428571428581</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>16</v>
       </c>
@@ -9055,10 +9072,10 @@
         <v>10</v>
       </c>
       <c r="I299" s="2">
-        <v>0.2950310559006211</v>
-      </c>
-    </row>
-    <row r="300" spans="1:9">
+        <v>0.29503105590062112</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>16</v>
       </c>
@@ -9084,10 +9101,10 @@
         <v>10</v>
       </c>
       <c r="I300" s="2">
-        <v>0.2955665024630542</v>
-      </c>
-    </row>
-    <row r="301" spans="1:9">
+        <v>0.29556650246305421</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>16</v>
       </c>
@@ -9113,10 +9130,10 @@
         <v>10</v>
       </c>
       <c r="I301" s="2">
-        <v>0.3021978021978022</v>
-      </c>
-    </row>
-    <row r="302" spans="1:9">
+        <v>0.30219780219780218</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>16</v>
       </c>
@@ -9142,10 +9159,10 @@
         <v>10</v>
       </c>
       <c r="I302" s="2">
-        <v>0.3035714285714285</v>
-      </c>
-    </row>
-    <row r="303" spans="1:9">
+        <v>0.30357142857142849</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>16</v>
       </c>
@@ -9171,10 +9188,10 @@
         <v>10</v>
       </c>
       <c r="I303" s="2">
-        <v>0.3042328042328042</v>
-      </c>
-    </row>
-    <row r="304" spans="1:9">
+        <v>0.30423280423280419</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>16</v>
       </c>
@@ -9200,10 +9217,10 @@
         <v>10</v>
       </c>
       <c r="I304" s="2">
-        <v>0.3061224489795918</v>
-      </c>
-    </row>
-    <row r="305" spans="1:9">
+        <v>0.30612244897959179</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>16</v>
       </c>
@@ -9232,7 +9249,7 @@
         <v>0.2435064935064935</v>
       </c>
     </row>
-    <row r="306" spans="1:9">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>16</v>
       </c>
@@ -9258,10 +9275,10 @@
         <v>10</v>
       </c>
       <c r="I306" s="2">
-        <v>0.2463054187192119</v>
-      </c>
-    </row>
-    <row r="307" spans="1:9">
+        <v>0.24630541871921191</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>16</v>
       </c>
@@ -9290,7 +9307,7 @@
         <v>0.2521008403361345</v>
       </c>
     </row>
-    <row r="308" spans="1:9">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>16</v>
       </c>
@@ -9316,10 +9333,10 @@
         <v>10</v>
       </c>
       <c r="I308" s="2">
-        <v>0.2551020408163265</v>
-      </c>
-    </row>
-    <row r="309" spans="1:9">
+        <v>0.25510204081632648</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>16</v>
       </c>
@@ -9345,10 +9362,10 @@
         <v>10</v>
       </c>
       <c r="I309" s="2">
-        <v>0.2551020408163265</v>
-      </c>
-    </row>
-    <row r="310" spans="1:9">
+        <v>0.25510204081632648</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>16</v>
       </c>
@@ -9374,10 +9391,10 @@
         <v>10</v>
       </c>
       <c r="I310" s="2">
-        <v>0.2619047619047619</v>
-      </c>
-    </row>
-    <row r="311" spans="1:9">
+        <v>0.26190476190476192</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>16</v>
       </c>
@@ -9403,10 +9420,10 @@
         <v>10</v>
       </c>
       <c r="I311" s="2">
-        <v>0.2631578947368421</v>
-      </c>
-    </row>
-    <row r="312" spans="1:9">
+        <v>0.26315789473684209</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>16</v>
       </c>
@@ -9435,7 +9452,7 @@
         <v>0.2639751552795031</v>
       </c>
     </row>
-    <row r="313" spans="1:9">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>16</v>
       </c>
@@ -9461,10 +9478,10 @@
         <v>10</v>
       </c>
       <c r="I313" s="2">
-        <v>0.2678571428571428</v>
-      </c>
-    </row>
-    <row r="314" spans="1:9">
+        <v>0.26785714285714279</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>16</v>
       </c>
@@ -9490,10 +9507,10 @@
         <v>10</v>
       </c>
       <c r="I314" s="2">
-        <v>0.273109243697479</v>
-      </c>
-    </row>
-    <row r="315" spans="1:9">
+        <v>0.27310924369747902</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>16</v>
       </c>
@@ -9519,10 +9536,10 @@
         <v>10</v>
       </c>
       <c r="I315" s="2">
-        <v>0.275974025974026</v>
-      </c>
-    </row>
-    <row r="316" spans="1:9">
+        <v>0.27597402597402598</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>16</v>
       </c>
@@ -9548,10 +9565,10 @@
         <v>10</v>
       </c>
       <c r="I316" s="2">
-        <v>0.2747252747252747</v>
-      </c>
-    </row>
-    <row r="317" spans="1:9">
+        <v>0.27472527472527469</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>16</v>
       </c>
@@ -9577,10 +9594,10 @@
         <v>10</v>
       </c>
       <c r="I317" s="2">
-        <v>0.2777777777777778</v>
-      </c>
-    </row>
-    <row r="318" spans="1:9">
+        <v>0.27777777777777779</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>16</v>
       </c>
@@ -9606,10 +9623,10 @@
         <v>10</v>
       </c>
       <c r="I318" s="2">
-        <v>0.2806122448979592</v>
-      </c>
-    </row>
-    <row r="319" spans="1:9">
+        <v>0.28061224489795922</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>16</v>
       </c>
@@ -9635,10 +9652,10 @@
         <v>10</v>
       </c>
       <c r="I319" s="2">
-        <v>0.2857142857142858</v>
-      </c>
-    </row>
-    <row r="320" spans="1:9">
+        <v>0.28571428571428581</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>16</v>
       </c>
@@ -9664,10 +9681,10 @@
         <v>10</v>
       </c>
       <c r="I320" s="2">
-        <v>0.2857142857142858</v>
-      </c>
-    </row>
-    <row r="321" spans="1:9">
+        <v>0.28571428571428581</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>16</v>
       </c>
@@ -9693,10 +9710,10 @@
         <v>10</v>
       </c>
       <c r="I321" s="2">
-        <v>0.2941176470588235</v>
-      </c>
-    </row>
-    <row r="322" spans="1:9">
+        <v>0.29411764705882348</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>16</v>
       </c>
@@ -9722,10 +9739,10 @@
         <v>10</v>
       </c>
       <c r="I322" s="2">
-        <v>0.2950310559006211</v>
-      </c>
-    </row>
-    <row r="323" spans="1:9">
+        <v>0.29503105590062112</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>16</v>
       </c>
@@ -9751,10 +9768,10 @@
         <v>10</v>
       </c>
       <c r="I323" s="2">
-        <v>0.2976190476190476</v>
-      </c>
-    </row>
-    <row r="324" spans="1:9">
+        <v>0.29761904761904762</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>16</v>
       </c>
@@ -9780,10 +9797,10 @@
         <v>10</v>
       </c>
       <c r="I324" s="2">
-        <v>0.2955665024630542</v>
-      </c>
-    </row>
-    <row r="325" spans="1:9">
+        <v>0.29556650246305421</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>16</v>
       </c>
@@ -9809,10 +9826,10 @@
         <v>10</v>
       </c>
       <c r="I325" s="2">
-        <v>0.3021978021978022</v>
-      </c>
-    </row>
-    <row r="326" spans="1:9">
+        <v>0.30219780219780218</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>16</v>
       </c>
@@ -9838,10 +9855,10 @@
         <v>10</v>
       </c>
       <c r="I326" s="2">
-        <v>0.3061224489795918</v>
-      </c>
-    </row>
-    <row r="327" spans="1:9">
+        <v>0.30612244897959179</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>16</v>
       </c>
@@ -9867,10 +9884,10 @@
         <v>10</v>
       </c>
       <c r="I327" s="2">
-        <v>0.3061224489795918</v>
-      </c>
-    </row>
-    <row r="328" spans="1:9">
+        <v>0.30612244897959179</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <v>16</v>
       </c>
@@ -9896,10 +9913,10 @@
         <v>10</v>
       </c>
       <c r="I328" s="2">
-        <v>0.3078817733990148</v>
-      </c>
-    </row>
-    <row r="329" spans="1:9">
+        <v>0.30788177339901479</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>16</v>
       </c>
@@ -9925,10 +9942,10 @@
         <v>10</v>
       </c>
       <c r="I329" s="2">
-        <v>0.2380952380952381</v>
-      </c>
-    </row>
-    <row r="330" spans="1:9">
+        <v>0.23809523809523811</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <v>16</v>
       </c>
@@ -9954,10 +9971,10 @@
         <v>10</v>
       </c>
       <c r="I330" s="2">
-        <v>0.2380952380952381</v>
-      </c>
-    </row>
-    <row r="331" spans="1:9">
+        <v>0.23809523809523811</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>16</v>
       </c>
@@ -9983,10 +10000,10 @@
         <v>10</v>
       </c>
       <c r="I331" s="2">
-        <v>0.2380952380952381</v>
-      </c>
-    </row>
-    <row r="332" spans="1:9">
+        <v>0.23809523809523811</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <v>16</v>
       </c>
@@ -10015,7 +10032,7 @@
         <v>0.2484472049689441</v>
       </c>
     </row>
-    <row r="333" spans="1:9">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>16</v>
       </c>
@@ -10041,10 +10058,10 @@
         <v>10</v>
       </c>
       <c r="I333" s="2">
-        <v>0.2571428571428571</v>
-      </c>
-    </row>
-    <row r="334" spans="1:9">
+        <v>0.25714285714285712</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <v>16</v>
       </c>
@@ -10070,10 +10087,10 @@
         <v>10</v>
       </c>
       <c r="I334" s="2">
-        <v>0.2586206896551724</v>
-      </c>
-    </row>
-    <row r="335" spans="1:9">
+        <v>0.25862068965517238</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>16</v>
       </c>
@@ -10099,10 +10116,10 @@
         <v>10</v>
       </c>
       <c r="I335" s="2">
-        <v>0.2678571428571428</v>
-      </c>
-    </row>
-    <row r="336" spans="1:9">
+        <v>0.26785714285714279</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>16</v>
       </c>
@@ -10128,10 +10145,10 @@
         <v>10</v>
       </c>
       <c r="I336" s="2">
-        <v>0.2678571428571428</v>
-      </c>
-    </row>
-    <row r="337" spans="1:9">
+        <v>0.26785714285714279</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>16</v>
       </c>
@@ -10157,10 +10174,10 @@
         <v>10</v>
       </c>
       <c r="I337" s="2">
-        <v>0.2678571428571428</v>
-      </c>
-    </row>
-    <row r="338" spans="1:9">
+        <v>0.26785714285714279</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>16</v>
       </c>
@@ -10186,10 +10203,10 @@
         <v>10</v>
       </c>
       <c r="I338" s="2">
-        <v>0.275974025974026</v>
-      </c>
-    </row>
-    <row r="339" spans="1:9">
+        <v>0.27597402597402598</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>16</v>
       </c>
@@ -10215,10 +10232,10 @@
         <v>10</v>
       </c>
       <c r="I339" s="2">
-        <v>0.2777777777777778</v>
-      </c>
-    </row>
-    <row r="340" spans="1:9">
+        <v>0.27777777777777779</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <v>16</v>
       </c>
@@ -10244,10 +10261,10 @@
         <v>10</v>
       </c>
       <c r="I340" s="2">
-        <v>0.2857142857142858</v>
-      </c>
-    </row>
-    <row r="341" spans="1:9">
+        <v>0.28571428571428581</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>16</v>
       </c>
@@ -10273,10 +10290,10 @@
         <v>10</v>
       </c>
       <c r="I341" s="2">
-        <v>0.2857142857142858</v>
-      </c>
-    </row>
-    <row r="342" spans="1:9">
+        <v>0.28571428571428581</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>16</v>
       </c>
@@ -10302,10 +10319,10 @@
         <v>10</v>
       </c>
       <c r="I342" s="2">
-        <v>0.2884615384615385</v>
-      </c>
-    </row>
-    <row r="343" spans="1:9">
+        <v>0.28846153846153849</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>16</v>
       </c>
@@ -10331,10 +10348,10 @@
         <v>10</v>
       </c>
       <c r="I343" s="2">
-        <v>0.2941176470588235</v>
-      </c>
-    </row>
-    <row r="344" spans="1:9">
+        <v>0.29411764705882348</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>16</v>
       </c>
@@ -10360,10 +10377,10 @@
         <v>10</v>
       </c>
       <c r="I344" s="2">
-        <v>0.2976190476190476</v>
-      </c>
-    </row>
-    <row r="345" spans="1:9">
+        <v>0.29761904761904762</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>16</v>
       </c>
@@ -10389,10 +10406,10 @@
         <v>10</v>
       </c>
       <c r="I345" s="2">
-        <v>0.2976190476190476</v>
-      </c>
-    </row>
-    <row r="346" spans="1:9">
+        <v>0.29761904761904762</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>16</v>
       </c>
@@ -10418,10 +10435,10 @@
         <v>10</v>
       </c>
       <c r="I346" s="2">
-        <v>0.3061224489795918</v>
-      </c>
-    </row>
-    <row r="347" spans="1:9">
+        <v>0.30612244897959179</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>16</v>
       </c>
@@ -10447,10 +10464,10 @@
         <v>10</v>
       </c>
       <c r="I347" s="2">
-        <v>0.3061224489795918</v>
-      </c>
-    </row>
-    <row r="348" spans="1:9">
+        <v>0.30612244897959179</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <v>16</v>
       </c>
@@ -10476,10 +10493,10 @@
         <v>10</v>
       </c>
       <c r="I348" s="2">
-        <v>0.3084415584415585</v>
-      </c>
-    </row>
-    <row r="349" spans="1:9">
+        <v>0.30844155844155852</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>16</v>
       </c>
@@ -10505,10 +10522,10 @@
         <v>10</v>
       </c>
       <c r="I349" s="2">
-        <v>0.3078817733990148</v>
-      </c>
-    </row>
-    <row r="350" spans="1:9">
+        <v>0.30788177339901479</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>17</v>
       </c>
@@ -10534,10 +10551,10 @@
         <v>13</v>
       </c>
       <c r="I350" s="2">
-        <v>0.3056426332288401</v>
-      </c>
-    </row>
-    <row r="351" spans="1:9">
+        <v>0.30564263322884011</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>17</v>
       </c>
@@ -10563,10 +10580,10 @@
         <v>13</v>
       </c>
       <c r="I351" s="2">
-        <v>0.3091557669441142</v>
-      </c>
-    </row>
-    <row r="352" spans="1:9">
+        <v>0.30915576694411417</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <v>17</v>
       </c>
@@ -10592,10 +10609,10 @@
         <v>13</v>
       </c>
       <c r="I352" s="2">
-        <v>0.2988505747126436</v>
-      </c>
-    </row>
-    <row r="353" spans="1:9">
+        <v>0.29885057471264359</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>17</v>
       </c>
@@ -10621,10 +10638,10 @@
         <v>13</v>
       </c>
       <c r="I353" s="2">
-        <v>0.2988505747126436</v>
-      </c>
-    </row>
-    <row r="354" spans="1:9">
+        <v>0.29885057471264359</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <v>17</v>
       </c>
@@ -10650,10 +10667,10 @@
         <v>13</v>
       </c>
       <c r="I354" s="2">
-        <v>0.2988505747126436</v>
-      </c>
-    </row>
-    <row r="355" spans="1:9">
+        <v>0.29885057471264359</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>17</v>
       </c>
@@ -10679,10 +10696,10 @@
         <v>10</v>
       </c>
       <c r="I355" s="2">
-        <v>0.2976190476190476</v>
-      </c>
-    </row>
-    <row r="356" spans="1:9">
+        <v>0.29761904761904762</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>17</v>
       </c>
@@ -10708,10 +10725,10 @@
         <v>10</v>
       </c>
       <c r="I356" s="2">
-        <v>0.3009259259259259</v>
-      </c>
-    </row>
-    <row r="357" spans="1:9">
+        <v>0.30092592592592587</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>17</v>
       </c>
@@ -10737,10 +10754,10 @@
         <v>10</v>
       </c>
       <c r="I357" s="2">
-        <v>0.303030303030303</v>
-      </c>
-    </row>
-    <row r="358" spans="1:9">
+        <v>0.30303030303030298</v>
+      </c>
+    </row>
+    <row r="358" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <v>17</v>
       </c>
@@ -10766,10 +10783,10 @@
         <v>10</v>
       </c>
       <c r="I358" s="2">
-        <v>0.3044871794871795</v>
-      </c>
-    </row>
-    <row r="359" spans="1:9">
+        <v>0.30448717948717952</v>
+      </c>
+    </row>
+    <row r="359" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <v>17</v>
       </c>
@@ -10795,10 +10812,10 @@
         <v>10</v>
       </c>
       <c r="I359" s="2">
-        <v>0.2916666666666667</v>
-      </c>
-    </row>
-    <row r="360" spans="1:9">
+        <v>0.29166666666666669</v>
+      </c>
+    </row>
+    <row r="360" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <v>17</v>
       </c>
@@ -10827,7 +10844,7 @@
         <v>0.2951388888888889</v>
       </c>
     </row>
-    <row r="361" spans="1:9">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
         <v>17</v>
       </c>
@@ -10853,10 +10870,10 @@
         <v>10</v>
       </c>
       <c r="I361" s="2">
-        <v>0.2976190476190476</v>
-      </c>
-    </row>
-    <row r="362" spans="1:9">
+        <v>0.29761904761904762</v>
+      </c>
+    </row>
+    <row r="362" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <v>17</v>
       </c>
@@ -10885,7 +10902,7 @@
         <v>0.3079710144927536</v>
       </c>
     </row>
-    <row r="363" spans="1:9">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
         <v>17</v>
       </c>
@@ -10911,10 +10928,10 @@
         <v>10</v>
       </c>
       <c r="I363" s="2">
-        <v>0.308641975308642</v>
-      </c>
-    </row>
-    <row r="364" spans="1:9">
+        <v>0.30864197530864201</v>
+      </c>
+    </row>
+    <row r="364" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
         <v>17</v>
       </c>
@@ -10940,10 +10957,10 @@
         <v>10</v>
       </c>
       <c r="I364" s="2">
-        <v>0.2840909090909091</v>
-      </c>
-    </row>
-    <row r="365" spans="1:9">
+        <v>0.28409090909090912</v>
+      </c>
+    </row>
+    <row r="365" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <v>17</v>
       </c>
@@ -10972,7 +10989,7 @@
         <v>0.2873563218390805</v>
       </c>
     </row>
-    <row r="366" spans="1:9">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
         <v>17</v>
       </c>
@@ -10998,10 +11015,10 @@
         <v>10</v>
       </c>
       <c r="I366" s="2">
-        <v>0.2941176470588235</v>
-      </c>
-    </row>
-    <row r="367" spans="1:9">
+        <v>0.29411764705882348</v>
+      </c>
+    </row>
+    <row r="367" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
         <v>17</v>
       </c>
@@ -11027,10 +11044,10 @@
         <v>10</v>
       </c>
       <c r="I367" s="2">
-        <v>0.2976190476190476</v>
-      </c>
-    </row>
-    <row r="368" spans="1:9">
+        <v>0.29761904761904762</v>
+      </c>
+    </row>
+    <row r="368" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
         <v>17</v>
       </c>
@@ -11056,10 +11073,10 @@
         <v>10</v>
       </c>
       <c r="I368" s="2">
-        <v>0.2976190476190476</v>
-      </c>
-    </row>
-    <row r="369" spans="1:9">
+        <v>0.29761904761904762</v>
+      </c>
+    </row>
+    <row r="369" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
         <v>17</v>
       </c>
@@ -11085,10 +11102,10 @@
         <v>10</v>
       </c>
       <c r="I369" s="2">
-        <v>0.3055555555555555</v>
-      </c>
-    </row>
-    <row r="370" spans="1:9">
+        <v>0.30555555555555552</v>
+      </c>
+    </row>
+    <row r="370" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
         <v>17</v>
       </c>
@@ -11114,10 +11131,10 @@
         <v>10</v>
       </c>
       <c r="I370" s="2">
-        <v>0.3070175438596491</v>
-      </c>
-    </row>
-    <row r="371" spans="1:9">
+        <v>0.30701754385964908</v>
+      </c>
+    </row>
+    <row r="371" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
         <v>17</v>
       </c>
@@ -11146,7 +11163,7 @@
         <v>0.3079710144927536</v>
       </c>
     </row>
-    <row r="372" spans="1:9">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
         <v>17</v>
       </c>
@@ -11172,10 +11189,10 @@
         <v>10</v>
       </c>
       <c r="I372" s="2">
-        <v>0.2777777777777778</v>
-      </c>
-    </row>
-    <row r="373" spans="1:9">
+        <v>0.27777777777777779</v>
+      </c>
+    </row>
+    <row r="373" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
         <v>17</v>
       </c>
@@ -11201,10 +11218,10 @@
         <v>10</v>
       </c>
       <c r="I373" s="2">
-        <v>0.2777777777777778</v>
-      </c>
-    </row>
-    <row r="374" spans="1:9">
+        <v>0.27777777777777779</v>
+      </c>
+    </row>
+    <row r="374" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
         <v>17</v>
       </c>
@@ -11230,10 +11247,10 @@
         <v>10</v>
       </c>
       <c r="I374" s="2">
-        <v>0.2777777777777778</v>
-      </c>
-    </row>
-    <row r="375" spans="1:9">
+        <v>0.27777777777777779</v>
+      </c>
+    </row>
+    <row r="375" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
         <v>17</v>
       </c>
@@ -11259,10 +11276,10 @@
         <v>10</v>
       </c>
       <c r="I375" s="2">
-        <v>0.2898550724637681</v>
-      </c>
-    </row>
-    <row r="376" spans="1:9">
+        <v>0.28985507246376813</v>
+      </c>
+    </row>
+    <row r="376" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
         <v>17</v>
       </c>
@@ -11291,7 +11308,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="377" spans="1:9">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
         <v>17</v>
       </c>
@@ -11317,10 +11334,10 @@
         <v>10</v>
       </c>
       <c r="I377" s="2">
-        <v>0.3017241379310345</v>
-      </c>
-    </row>
-    <row r="378" spans="1:9">
+        <v>0.30172413793103448</v>
+      </c>
+    </row>
+    <row r="378" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
         <v>17</v>
       </c>
@@ -11346,10 +11363,10 @@
         <v>11</v>
       </c>
       <c r="I378" s="2">
-        <v>0.3055555555555555</v>
-      </c>
-    </row>
-    <row r="379" spans="1:9">
+        <v>0.30555555555555552</v>
+      </c>
+    </row>
+    <row r="379" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
         <v>17</v>
       </c>
@@ -11375,10 +11392,10 @@
         <v>11</v>
       </c>
       <c r="I379" s="2">
-        <v>0.3055555555555555</v>
-      </c>
-    </row>
-    <row r="380" spans="1:9">
+        <v>0.30555555555555552</v>
+      </c>
+    </row>
+    <row r="380" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
         <v>17</v>
       </c>
@@ -11404,10 +11421,10 @@
         <v>11</v>
       </c>
       <c r="I380" s="2">
-        <v>0.3090676883780332</v>
-      </c>
-    </row>
-    <row r="381" spans="1:9">
+        <v>0.30906768837803322</v>
+      </c>
+    </row>
+    <row r="381" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
         <v>17</v>
       </c>
@@ -11433,10 +11450,10 @@
         <v>11</v>
       </c>
       <c r="I381" s="2">
-        <v>0.291005291005291</v>
-      </c>
-    </row>
-    <row r="382" spans="1:9">
+        <v>0.29100529100529099</v>
+      </c>
+    </row>
+    <row r="382" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
         <v>17</v>
       </c>
@@ -11462,10 +11479,10 @@
         <v>11</v>
       </c>
       <c r="I382" s="2">
-        <v>0.294238683127572</v>
-      </c>
-    </row>
-    <row r="383" spans="1:9">
+        <v>0.29423868312757201</v>
+      </c>
+    </row>
+    <row r="383" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
         <v>17</v>
       </c>
@@ -11491,10 +11508,10 @@
         <v>11</v>
       </c>
       <c r="I383" s="2">
-        <v>0.2962962962962963</v>
-      </c>
-    </row>
-    <row r="384" spans="1:9">
+        <v>0.29629629629629628</v>
+      </c>
+    </row>
+    <row r="384" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
         <v>17</v>
       </c>
@@ -11520,10 +11537,10 @@
         <v>11</v>
       </c>
       <c r="I384" s="2">
-        <v>0.2977207977207977</v>
-      </c>
-    </row>
-    <row r="385" spans="1:9">
+        <v>0.29772079772079768</v>
+      </c>
+    </row>
+    <row r="385" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
         <v>17</v>
       </c>
@@ -11549,10 +11566,10 @@
         <v>11</v>
       </c>
       <c r="I385" s="2">
-        <v>0.3055555555555555</v>
-      </c>
-    </row>
-    <row r="386" spans="1:9">
+        <v>0.30555555555555552</v>
+      </c>
+    </row>
+    <row r="386" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A386" s="1">
         <v>17</v>
       </c>
@@ -11578,10 +11595,10 @@
         <v>11</v>
       </c>
       <c r="I386" s="2">
-        <v>0.3096296296296296</v>
-      </c>
-    </row>
-    <row r="387" spans="1:9">
+        <v>0.30962962962962959</v>
+      </c>
+    </row>
+    <row r="387" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A387" s="1">
         <v>17</v>
       </c>
@@ -11607,10 +11624,10 @@
         <v>11</v>
       </c>
       <c r="I387" s="2">
-        <v>0.3090676883780332</v>
-      </c>
-    </row>
-    <row r="388" spans="1:9">
+        <v>0.30906768837803322</v>
+      </c>
+    </row>
+    <row r="388" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A388" s="1">
         <v>17</v>
       </c>
@@ -11636,10 +11653,10 @@
         <v>11</v>
       </c>
       <c r="I388" s="2">
-        <v>0.2851851851851852</v>
-      </c>
-    </row>
-    <row r="389" spans="1:9">
+        <v>0.28518518518518521</v>
+      </c>
+    </row>
+    <row r="389" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A389" s="1">
         <v>17</v>
       </c>
@@ -11665,10 +11682,10 @@
         <v>11</v>
       </c>
       <c r="I389" s="2">
-        <v>0.2885802469135803</v>
-      </c>
-    </row>
-    <row r="390" spans="1:9">
+        <v>0.28858024691358031</v>
+      </c>
+    </row>
+    <row r="390" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A390" s="1">
         <v>17</v>
       </c>
@@ -11694,10 +11711,10 @@
         <v>11</v>
       </c>
       <c r="I390" s="2">
-        <v>0.291005291005291</v>
-      </c>
-    </row>
-    <row r="391" spans="1:9">
+        <v>0.29100529100529099</v>
+      </c>
+    </row>
+    <row r="391" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A391" s="1">
         <v>17</v>
       </c>
@@ -11723,10 +11740,10 @@
         <v>11</v>
       </c>
       <c r="I391" s="2">
-        <v>0.3011272141706924</v>
-      </c>
-    </row>
-    <row r="392" spans="1:9">
+        <v>0.30112721417069238</v>
+      </c>
+    </row>
+    <row r="392" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A392" s="1">
         <v>17</v>
       </c>
@@ -11752,10 +11769,10 @@
         <v>11</v>
       </c>
       <c r="I392" s="2">
-        <v>0.3017832647462277</v>
-      </c>
-    </row>
-    <row r="393" spans="1:9">
+        <v>0.30178326474622769</v>
+      </c>
+    </row>
+    <row r="393" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A393" s="1">
         <v>17</v>
       </c>
@@ -11781,10 +11798,10 @@
         <v>11</v>
       </c>
       <c r="I393" s="2">
-        <v>0.2777777777777777</v>
-      </c>
-    </row>
-    <row r="394" spans="1:9">
+        <v>0.27777777777777768</v>
+      </c>
+    </row>
+    <row r="394" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A394" s="1">
         <v>17</v>
       </c>
@@ -11810,10 +11827,10 @@
         <v>11</v>
       </c>
       <c r="I394" s="2">
-        <v>0.280970625798212</v>
-      </c>
-    </row>
-    <row r="395" spans="1:9">
+        <v>0.28097062579821203</v>
+      </c>
+    </row>
+    <row r="395" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A395" s="1">
         <v>17</v>
       </c>
@@ -11839,10 +11856,10 @@
         <v>11</v>
       </c>
       <c r="I395" s="2">
-        <v>0.2875816993464052</v>
-      </c>
-    </row>
-    <row r="396" spans="1:9">
+        <v>0.28758169934640521</v>
+      </c>
+    </row>
+    <row r="396" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A396" s="1">
         <v>17</v>
       </c>
@@ -11868,10 +11885,10 @@
         <v>11</v>
       </c>
       <c r="I396" s="2">
-        <v>0.291005291005291</v>
-      </c>
-    </row>
-    <row r="397" spans="1:9">
+        <v>0.29100529100529099</v>
+      </c>
+    </row>
+    <row r="397" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A397" s="1">
         <v>17</v>
       </c>
@@ -11897,10 +11914,10 @@
         <v>11</v>
       </c>
       <c r="I397" s="2">
-        <v>0.291005291005291</v>
-      </c>
-    </row>
-    <row r="398" spans="1:9">
+        <v>0.29100529100529099</v>
+      </c>
+    </row>
+    <row r="398" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A398" s="1">
         <v>17</v>
       </c>
@@ -11926,10 +11943,10 @@
         <v>11</v>
       </c>
       <c r="I398" s="2">
-        <v>0.2987654320987654</v>
-      </c>
-    </row>
-    <row r="399" spans="1:9">
+        <v>0.29876543209876538</v>
+      </c>
+    </row>
+    <row r="399" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A399" s="1">
         <v>17</v>
       </c>
@@ -11955,10 +11972,10 @@
         <v>11</v>
       </c>
       <c r="I399" s="2">
-        <v>0.3001949317738791</v>
-      </c>
-    </row>
-    <row r="400" spans="1:9">
+        <v>0.30019493177387913</v>
+      </c>
+    </row>
+    <row r="400" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A400" s="1">
         <v>17</v>
       </c>
@@ -11984,10 +12001,10 @@
         <v>11</v>
       </c>
       <c r="I400" s="2">
-        <v>0.3011272141706924</v>
-      </c>
-    </row>
-    <row r="401" spans="1:9">
+        <v>0.30112721417069238</v>
+      </c>
+    </row>
+    <row r="401" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A401" s="1">
         <v>17</v>
       </c>
@@ -12013,10 +12030,10 @@
         <v>11</v>
       </c>
       <c r="I401" s="2">
-        <v>0.3055555555555555</v>
-      </c>
-    </row>
-    <row r="402" spans="1:9">
+        <v>0.30555555555555552</v>
+      </c>
+    </row>
+    <row r="402" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A402" s="1">
         <v>17</v>
       </c>
@@ -12042,10 +12059,10 @@
         <v>11</v>
       </c>
       <c r="I402" s="2">
-        <v>0.2716049382716049</v>
-      </c>
-    </row>
-    <row r="403" spans="1:9">
+        <v>0.27160493827160492</v>
+      </c>
+    </row>
+    <row r="403" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A403" s="1">
         <v>17</v>
       </c>
@@ -12071,10 +12088,10 @@
         <v>11</v>
       </c>
       <c r="I403" s="2">
-        <v>0.2716049382716049</v>
-      </c>
-    </row>
-    <row r="404" spans="1:9">
+        <v>0.27160493827160492</v>
+      </c>
+    </row>
+    <row r="404" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A404" s="1">
         <v>17</v>
       </c>
@@ -12100,10 +12117,10 @@
         <v>11</v>
       </c>
       <c r="I404" s="2">
-        <v>0.2716049382716049</v>
-      </c>
-    </row>
-    <row r="405" spans="1:9">
+        <v>0.27160493827160492</v>
+      </c>
+    </row>
+    <row r="405" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A405" s="1">
         <v>17</v>
       </c>
@@ -12129,10 +12146,10 @@
         <v>11</v>
       </c>
       <c r="I405" s="2">
-        <v>0.2834138486312399</v>
-      </c>
-    </row>
-    <row r="406" spans="1:9">
+        <v>0.28341384863123992</v>
+      </c>
+    </row>
+    <row r="406" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A406" s="1">
         <v>17</v>
       </c>
@@ -12158,10 +12175,10 @@
         <v>11</v>
       </c>
       <c r="I406" s="2">
-        <v>0.2933333333333333</v>
-      </c>
-    </row>
-    <row r="407" spans="1:9">
+        <v>0.29333333333333328</v>
+      </c>
+    </row>
+    <row r="407" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A407" s="1">
         <v>17</v>
       </c>
@@ -12190,7 +12207,7 @@
         <v>0.2950191570881226</v>
       </c>
     </row>
-    <row r="408" spans="1:9">
+    <row r="408" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A408" s="1">
         <v>17</v>
       </c>
@@ -12216,10 +12233,10 @@
         <v>11</v>
       </c>
       <c r="I408" s="2">
-        <v>0.3055555555555555</v>
-      </c>
-    </row>
-    <row r="409" spans="1:9">
+        <v>0.30555555555555552</v>
+      </c>
+    </row>
+    <row r="409" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A409" s="1">
         <v>17</v>
       </c>
@@ -12245,10 +12262,10 @@
         <v>11</v>
       </c>
       <c r="I409" s="2">
-        <v>0.3055555555555555</v>
-      </c>
-    </row>
-    <row r="410" spans="1:9">
+        <v>0.30555555555555552</v>
+      </c>
+    </row>
+    <row r="410" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A410" s="1">
         <v>17</v>
       </c>
@@ -12274,10 +12291,10 @@
         <v>11</v>
       </c>
       <c r="I410" s="2">
-        <v>0.3055555555555555</v>
-      </c>
-    </row>
-    <row r="411" spans="1:9">
+        <v>0.30555555555555552</v>
+      </c>
+    </row>
+    <row r="411" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A411" s="1">
         <v>17</v>
       </c>
@@ -12303,10 +12320,10 @@
         <v>10</v>
       </c>
       <c r="I411" s="2">
-        <v>0.3050108932461874</v>
-      </c>
-    </row>
-    <row r="412" spans="1:9">
+        <v>0.30501089324618741</v>
+      </c>
+    </row>
+    <row r="412" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A412" s="1">
         <v>17</v>
       </c>
@@ -12332,10 +12349,10 @@
         <v>10</v>
       </c>
       <c r="I412" s="2">
-        <v>0.3059581320450885</v>
-      </c>
-    </row>
-    <row r="413" spans="1:9">
+        <v>0.30595813204508848</v>
+      </c>
+    </row>
+    <row r="413" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A413" s="1">
         <v>17</v>
       </c>
@@ -12361,10 +12378,10 @@
         <v>10</v>
       </c>
       <c r="I413" s="2">
-        <v>0.308641975308642</v>
-      </c>
-    </row>
-    <row r="414" spans="1:9">
+        <v>0.30864197530864201</v>
+      </c>
+    </row>
+    <row r="414" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A414" s="1">
         <v>17</v>
       </c>
@@ -12390,10 +12407,10 @@
         <v>10</v>
       </c>
       <c r="I414" s="2">
-        <v>0.2962962962962963</v>
-      </c>
-    </row>
-    <row r="415" spans="1:9">
+        <v>0.29629629629629628</v>
+      </c>
+    </row>
+    <row r="415" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A415" s="1">
         <v>17</v>
       </c>
@@ -12419,10 +12436,10 @@
         <v>10</v>
       </c>
       <c r="I415" s="2">
-        <v>0.2962962962962963</v>
-      </c>
-    </row>
-    <row r="416" spans="1:9">
+        <v>0.29629629629629628</v>
+      </c>
+    </row>
+    <row r="416" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A416" s="1">
         <v>17</v>
       </c>
@@ -12448,10 +12465,10 @@
         <v>10</v>
       </c>
       <c r="I416" s="2">
-        <v>0.2991452991452991</v>
-      </c>
-    </row>
-    <row r="417" spans="1:9">
+        <v>0.29914529914529908</v>
+      </c>
+    </row>
+    <row r="417" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A417" s="1">
         <v>17</v>
       </c>
@@ -12477,10 +12494,10 @@
         <v>10</v>
       </c>
       <c r="I417" s="2">
-        <v>0.308641975308642</v>
-      </c>
-    </row>
-    <row r="418" spans="1:9">
+        <v>0.30864197530864201</v>
+      </c>
+    </row>
+    <row r="418" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A418" s="1">
         <v>17</v>
       </c>
@@ -12506,10 +12523,10 @@
         <v>10</v>
       </c>
       <c r="I418" s="2">
-        <v>0.308641975308642</v>
-      </c>
-    </row>
-    <row r="419" spans="1:9">
+        <v>0.30864197530864201</v>
+      </c>
+    </row>
+    <row r="419" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A419" s="1">
         <v>17</v>
       </c>
@@ -12535,10 +12552,10 @@
         <v>10</v>
       </c>
       <c r="I419" s="2">
-        <v>0.2861952861952862</v>
-      </c>
-    </row>
-    <row r="420" spans="1:9">
+        <v>0.28619528619528622</v>
+      </c>
+    </row>
+    <row r="420" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A420" s="1">
         <v>17</v>
       </c>
@@ -12564,10 +12581,10 @@
         <v>10</v>
       </c>
       <c r="I420" s="2">
-        <v>0.2880658436213991</v>
-      </c>
-    </row>
-    <row r="421" spans="1:9">
+        <v>0.28806584362139909</v>
+      </c>
+    </row>
+    <row r="421" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A421" s="1">
         <v>17</v>
       </c>
@@ -12593,10 +12610,10 @@
         <v>10</v>
       </c>
       <c r="I421" s="2">
-        <v>0.2962962962962963</v>
-      </c>
-    </row>
-    <row r="422" spans="1:9">
+        <v>0.29629629629629628</v>
+      </c>
+    </row>
+    <row r="422" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A422" s="1">
         <v>17</v>
       </c>
@@ -12622,10 +12639,10 @@
         <v>10</v>
       </c>
       <c r="I422" s="2">
-        <v>0.2998236331569665</v>
-      </c>
-    </row>
-    <row r="423" spans="1:9">
+        <v>0.29982363315696647</v>
+      </c>
+    </row>
+    <row r="423" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A423" s="1">
         <v>17</v>
       </c>
@@ -12651,10 +12668,10 @@
         <v>10</v>
       </c>
       <c r="I423" s="2">
-        <v>0.2991452991452991</v>
-      </c>
-    </row>
-    <row r="424" spans="1:9">
+        <v>0.29914529914529908</v>
+      </c>
+    </row>
+    <row r="424" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A424" s="1">
         <v>17</v>
       </c>
@@ -12680,10 +12697,10 @@
         <v>10</v>
       </c>
       <c r="I424" s="2">
-        <v>0.3017832647462277</v>
-      </c>
-    </row>
-    <row r="425" spans="1:9">
+        <v>0.30178326474622769</v>
+      </c>
+    </row>
+    <row r="425" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A425" s="1">
         <v>17</v>
       </c>
@@ -12709,10 +12726,10 @@
         <v>10</v>
       </c>
       <c r="I425" s="2">
-        <v>0.308641975308642</v>
-      </c>
-    </row>
-    <row r="426" spans="1:9">
+        <v>0.30864197530864201</v>
+      </c>
+    </row>
+    <row r="426" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A426" s="1">
         <v>17</v>
       </c>
@@ -12738,10 +12755,10 @@
         <v>10</v>
       </c>
       <c r="I426" s="2">
-        <v>0.308641975308642</v>
-      </c>
-    </row>
-    <row r="427" spans="1:9">
+        <v>0.30864197530864201</v>
+      </c>
+    </row>
+    <row r="427" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A427" s="1">
         <v>17</v>
       </c>
@@ -12767,10 +12784,10 @@
         <v>10</v>
       </c>
       <c r="I427" s="2">
-        <v>0.2777777777777778</v>
-      </c>
-    </row>
-    <row r="428" spans="1:9">
+        <v>0.27777777777777779</v>
+      </c>
+    </row>
+    <row r="428" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A428" s="1">
         <v>17</v>
       </c>
@@ -12796,10 +12813,10 @@
         <v>10</v>
       </c>
       <c r="I428" s="2">
-        <v>0.2777777777777778</v>
-      </c>
-    </row>
-    <row r="429" spans="1:9">
+        <v>0.27777777777777779</v>
+      </c>
+    </row>
+    <row r="429" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A429" s="1">
         <v>17</v>
       </c>
@@ -12825,10 +12842,10 @@
         <v>10</v>
       </c>
       <c r="I429" s="2">
-        <v>0.280970625798212</v>
-      </c>
-    </row>
-    <row r="430" spans="1:9">
+        <v>0.28097062579821203</v>
+      </c>
+    </row>
+    <row r="430" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A430" s="1">
         <v>17</v>
       </c>
@@ -12854,10 +12871,10 @@
         <v>10</v>
       </c>
       <c r="I430" s="2">
-        <v>0.2849002849002849</v>
-      </c>
-    </row>
-    <row r="431" spans="1:9">
+        <v>0.28490028490028491</v>
+      </c>
+    </row>
+    <row r="431" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A431" s="1">
         <v>17</v>
       </c>
@@ -12883,10 +12900,10 @@
         <v>10</v>
       </c>
       <c r="I431" s="2">
-        <v>0.2880658436213991</v>
-      </c>
-    </row>
-    <row r="432" spans="1:9">
+        <v>0.28806584362139909</v>
+      </c>
+    </row>
+    <row r="432" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A432" s="1">
         <v>17</v>
       </c>
@@ -12912,10 +12929,10 @@
         <v>10</v>
       </c>
       <c r="I432" s="2">
-        <v>0.2898550724637681</v>
-      </c>
-    </row>
-    <row r="433" spans="1:9">
+        <v>0.28985507246376813</v>
+      </c>
+    </row>
+    <row r="433" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A433" s="1">
         <v>17</v>
       </c>
@@ -12941,10 +12958,10 @@
         <v>10</v>
       </c>
       <c r="I433" s="2">
-        <v>0.291005291005291</v>
-      </c>
-    </row>
-    <row r="434" spans="1:9">
+        <v>0.29100529100529099</v>
+      </c>
+    </row>
+    <row r="434" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A434" s="1">
         <v>17</v>
       </c>
@@ -12970,10 +12987,10 @@
         <v>10</v>
       </c>
       <c r="I434" s="2">
-        <v>0.2998236331569665</v>
-      </c>
-    </row>
-    <row r="435" spans="1:9">
+        <v>0.29982363315696647</v>
+      </c>
+    </row>
+    <row r="435" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A435" s="1">
         <v>17</v>
       </c>
@@ -12999,10 +13016,10 @@
         <v>10</v>
       </c>
       <c r="I435" s="2">
-        <v>0.3017832647462277</v>
-      </c>
-    </row>
-    <row r="436" spans="1:9">
+        <v>0.30178326474622769</v>
+      </c>
+    </row>
+    <row r="436" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A436" s="1">
         <v>17</v>
       </c>
@@ -13028,10 +13045,10 @@
         <v>10</v>
       </c>
       <c r="I436" s="2">
-        <v>0.308641975308642</v>
-      </c>
-    </row>
-    <row r="437" spans="1:9">
+        <v>0.30864197530864201</v>
+      </c>
+    </row>
+    <row r="437" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A437" s="1">
         <v>17</v>
       </c>
@@ -13057,10 +13074,10 @@
         <v>10</v>
       </c>
       <c r="I437" s="2">
-        <v>0.2645502645502645</v>
-      </c>
-    </row>
-    <row r="438" spans="1:9">
+        <v>0.26455026455026448</v>
+      </c>
+    </row>
+    <row r="438" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A438" s="1">
         <v>17</v>
       </c>
@@ -13086,10 +13103,10 @@
         <v>10</v>
       </c>
       <c r="I438" s="2">
-        <v>0.2674897119341564</v>
-      </c>
-    </row>
-    <row r="439" spans="1:9">
+        <v>0.26748971193415638</v>
+      </c>
+    </row>
+    <row r="439" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A439" s="1">
         <v>17</v>
       </c>
@@ -13115,10 +13132,10 @@
         <v>10</v>
       </c>
       <c r="I439" s="2">
-        <v>0.2693602693602694</v>
-      </c>
-    </row>
-    <row r="440" spans="1:9">
+        <v>0.26936026936026941</v>
+      </c>
+    </row>
+    <row r="440" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A440" s="1">
         <v>17</v>
       </c>
@@ -13144,10 +13161,10 @@
         <v>10</v>
       </c>
       <c r="I440" s="2">
-        <v>0.2706552706552706</v>
-      </c>
-    </row>
-    <row r="441" spans="1:9">
+        <v>0.27065527065527062</v>
+      </c>
+    </row>
+    <row r="441" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A441" s="1">
         <v>17</v>
       </c>
@@ -13173,10 +13190,10 @@
         <v>10</v>
       </c>
       <c r="I441" s="2">
-        <v>0.2777777777777778</v>
-      </c>
-    </row>
-    <row r="442" spans="1:9">
+        <v>0.27777777777777779</v>
+      </c>
+    </row>
+    <row r="442" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A442" s="1">
         <v>17</v>
       </c>
@@ -13202,10 +13219,10 @@
         <v>10</v>
       </c>
       <c r="I442" s="2">
-        <v>0.2814814814814814</v>
-      </c>
-    </row>
-    <row r="443" spans="1:9">
+        <v>0.28148148148148139</v>
+      </c>
+    </row>
+    <row r="443" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A443" s="1">
         <v>17</v>
       </c>
@@ -13231,10 +13248,10 @@
         <v>10</v>
       </c>
       <c r="I443" s="2">
-        <v>0.280970625798212</v>
-      </c>
-    </row>
-    <row r="444" spans="1:9">
+        <v>0.28097062579821203</v>
+      </c>
+    </row>
+    <row r="444" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A444" s="1">
         <v>17</v>
       </c>
@@ -13260,10 +13277,10 @@
         <v>10</v>
       </c>
       <c r="I444" s="2">
-        <v>0.2923976608187134</v>
-      </c>
-    </row>
-    <row r="445" spans="1:9">
+        <v>0.29239766081871338</v>
+      </c>
+    </row>
+    <row r="445" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A445" s="1">
         <v>17</v>
       </c>
@@ -13289,10 +13306,10 @@
         <v>10</v>
       </c>
       <c r="I445" s="2">
-        <v>0.2932098765432098</v>
-      </c>
-    </row>
-    <row r="446" spans="1:9">
+        <v>0.29320987654320979</v>
+      </c>
+    </row>
+    <row r="446" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A446" s="1">
         <v>17</v>
       </c>
@@ -13318,10 +13335,10 @@
         <v>10</v>
       </c>
       <c r="I446" s="2">
-        <v>0.2937420178799489</v>
-      </c>
-    </row>
-    <row r="447" spans="1:9">
+        <v>0.29374201787994891</v>
+      </c>
+    </row>
+    <row r="447" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A447" s="1">
         <v>17</v>
       </c>
@@ -13347,10 +13364,10 @@
         <v>10</v>
       </c>
       <c r="I447" s="2">
-        <v>0.3009259259259259</v>
-      </c>
-    </row>
-    <row r="448" spans="1:9">
+        <v>0.30092592592592587</v>
+      </c>
+    </row>
+    <row r="448" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A448" s="1">
         <v>17</v>
       </c>
@@ -13376,10 +13393,10 @@
         <v>10</v>
       </c>
       <c r="I448" s="2">
-        <v>0.303030303030303</v>
-      </c>
-    </row>
-    <row r="449" spans="1:9">
+        <v>0.30303030303030298</v>
+      </c>
+    </row>
+    <row r="449" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A449" s="1">
         <v>17</v>
       </c>
@@ -13405,10 +13422,10 @@
         <v>10</v>
       </c>
       <c r="I449" s="2">
-        <v>0.3042328042328042</v>
-      </c>
-    </row>
-    <row r="450" spans="1:9">
+        <v>0.30423280423280419</v>
+      </c>
+    </row>
+    <row r="450" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A450" s="1">
         <v>17</v>
       </c>
@@ -13434,10 +13451,10 @@
         <v>10</v>
       </c>
       <c r="I450" s="2">
-        <v>0.308641975308642</v>
-      </c>
-    </row>
-    <row r="451" spans="1:9">
+        <v>0.30864197530864201</v>
+      </c>
+    </row>
+    <row r="451" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A451" s="1">
         <v>17</v>
       </c>
@@ -13463,10 +13480,10 @@
         <v>10</v>
       </c>
       <c r="I451" s="2">
-        <v>0.2592592592592592</v>
-      </c>
-    </row>
-    <row r="452" spans="1:9">
+        <v>0.25925925925925919</v>
+      </c>
+    </row>
+    <row r="452" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A452" s="1">
         <v>17</v>
       </c>
@@ -13492,10 +13509,10 @@
         <v>10</v>
       </c>
       <c r="I452" s="2">
-        <v>0.2623456790123457</v>
-      </c>
-    </row>
-    <row r="453" spans="1:9">
+        <v>0.26234567901234568</v>
+      </c>
+    </row>
+    <row r="453" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A453" s="1">
         <v>17</v>
       </c>
@@ -13521,10 +13538,10 @@
         <v>10</v>
       </c>
       <c r="I453" s="2">
-        <v>0.2645502645502645</v>
-      </c>
-    </row>
-    <row r="454" spans="1:9">
+        <v>0.26455026455026448</v>
+      </c>
+    </row>
+    <row r="454" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A454" s="1">
         <v>17</v>
       </c>
@@ -13550,10 +13567,10 @@
         <v>10</v>
       </c>
       <c r="I454" s="2">
-        <v>0.2737520128824477</v>
-      </c>
-    </row>
-    <row r="455" spans="1:9">
+        <v>0.27375201288244772</v>
+      </c>
+    </row>
+    <row r="455" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A455" s="1">
         <v>17</v>
       </c>
@@ -13582,7 +13599,7 @@
         <v>0.2743484224965706</v>
       </c>
     </row>
-    <row r="456" spans="1:9">
+    <row r="456" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A456" s="1">
         <v>17</v>
       </c>
@@ -13611,7 +13628,7 @@
         <v>0.2821869488536155</v>
       </c>
     </row>
-    <row r="457" spans="1:9">
+    <row r="457" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A457" s="1">
         <v>17</v>
       </c>
@@ -13637,10 +13654,10 @@
         <v>10</v>
       </c>
       <c r="I457" s="2">
-        <v>0.2849002849002849</v>
-      </c>
-    </row>
-    <row r="458" spans="1:9">
+        <v>0.28490028490028491</v>
+      </c>
+    </row>
+    <row r="458" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A458" s="1">
         <v>17</v>
       </c>
@@ -13666,10 +13683,10 @@
         <v>10</v>
       </c>
       <c r="I458" s="2">
-        <v>0.291005291005291</v>
-      </c>
-    </row>
-    <row r="459" spans="1:9">
+        <v>0.29100529100529099</v>
+      </c>
+    </row>
+    <row r="459" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A459" s="1">
         <v>17</v>
       </c>
@@ -13695,10 +13712,10 @@
         <v>10</v>
       </c>
       <c r="I459" s="2">
-        <v>0.2923976608187134</v>
-      </c>
-    </row>
-    <row r="460" spans="1:9">
+        <v>0.29239766081871338</v>
+      </c>
+    </row>
+    <row r="460" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A460" s="1">
         <v>17</v>
       </c>
@@ -13724,10 +13741,10 @@
         <v>10</v>
       </c>
       <c r="I460" s="2">
-        <v>0.2932098765432098</v>
-      </c>
-    </row>
-    <row r="461" spans="1:9">
+        <v>0.29320987654320979</v>
+      </c>
+    </row>
+    <row r="461" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A461" s="1">
         <v>17</v>
       </c>
@@ -13753,10 +13770,10 @@
         <v>10</v>
       </c>
       <c r="I461" s="2">
-        <v>0.2962962962962963</v>
-      </c>
-    </row>
-    <row r="462" spans="1:9">
+        <v>0.29629629629629628</v>
+      </c>
+    </row>
+    <row r="462" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A462" s="1">
         <v>17</v>
       </c>
@@ -13782,10 +13799,10 @@
         <v>10</v>
       </c>
       <c r="I462" s="2">
-        <v>0.3059581320450885</v>
-      </c>
-    </row>
-    <row r="463" spans="1:9">
+        <v>0.30595813204508848</v>
+      </c>
+    </row>
+    <row r="463" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A463" s="1">
         <v>17</v>
       </c>
@@ -13814,7 +13831,7 @@
         <v>0.3065134099616858</v>
       </c>
     </row>
-    <row r="464" spans="1:9">
+    <row r="464" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A464" s="1">
         <v>17</v>
       </c>
@@ -13840,10 +13857,10 @@
         <v>10</v>
       </c>
       <c r="I464" s="2">
-        <v>0.2525252525252525</v>
-      </c>
-    </row>
-    <row r="465" spans="1:9">
+        <v>0.25252525252525249</v>
+      </c>
+    </row>
+    <row r="465" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A465" s="1">
         <v>17</v>
       </c>
@@ -13872,7 +13889,7 @@
         <v>0.2554278416347382</v>
       </c>
     </row>
-    <row r="466" spans="1:9">
+    <row r="466" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A466" s="1">
         <v>17</v>
       </c>
@@ -13898,10 +13915,10 @@
         <v>10</v>
       </c>
       <c r="I466" s="2">
-        <v>0.261437908496732</v>
-      </c>
-    </row>
-    <row r="467" spans="1:9">
+        <v>0.26143790849673199</v>
+      </c>
+    </row>
+    <row r="467" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A467" s="1">
         <v>17</v>
       </c>
@@ -13927,10 +13944,10 @@
         <v>10</v>
       </c>
       <c r="I467" s="2">
-        <v>0.2645502645502645</v>
-      </c>
-    </row>
-    <row r="468" spans="1:9">
+        <v>0.26455026455026448</v>
+      </c>
+    </row>
+    <row r="468" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A468" s="1">
         <v>17</v>
       </c>
@@ -13956,10 +13973,10 @@
         <v>10</v>
       </c>
       <c r="I468" s="2">
-        <v>0.2645502645502645</v>
-      </c>
-    </row>
-    <row r="469" spans="1:9">
+        <v>0.26455026455026448</v>
+      </c>
+    </row>
+    <row r="469" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A469" s="1">
         <v>17</v>
       </c>
@@ -13985,10 +14002,10 @@
         <v>10</v>
       </c>
       <c r="I469" s="2">
-        <v>0.2716049382716049</v>
-      </c>
-    </row>
-    <row r="470" spans="1:9">
+        <v>0.27160493827160492</v>
+      </c>
+    </row>
+    <row r="470" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A470" s="1">
         <v>17</v>
       </c>
@@ -14014,10 +14031,10 @@
         <v>10</v>
       </c>
       <c r="I470" s="2">
-        <v>0.2729044834307992</v>
-      </c>
-    </row>
-    <row r="471" spans="1:9">
+        <v>0.27290448343079921</v>
+      </c>
+    </row>
+    <row r="471" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A471" s="1">
         <v>17</v>
       </c>
@@ -14043,10 +14060,10 @@
         <v>10</v>
       </c>
       <c r="I471" s="2">
-        <v>0.2737520128824477</v>
-      </c>
-    </row>
-    <row r="472" spans="1:9">
+        <v>0.27375201288244772</v>
+      </c>
+    </row>
+    <row r="472" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A472" s="1">
         <v>17</v>
       </c>
@@ -14072,10 +14089,10 @@
         <v>10</v>
       </c>
       <c r="I472" s="2">
-        <v>0.2777777777777778</v>
-      </c>
-    </row>
-    <row r="473" spans="1:9">
+        <v>0.27777777777777779</v>
+      </c>
+    </row>
+    <row r="473" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A473" s="1">
         <v>17</v>
       </c>
@@ -14101,10 +14118,10 @@
         <v>10</v>
       </c>
       <c r="I473" s="2">
-        <v>0.2832244008714597</v>
-      </c>
-    </row>
-    <row r="474" spans="1:9">
+        <v>0.28322440087145972</v>
+      </c>
+    </row>
+    <row r="474" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A474" s="1">
         <v>17</v>
       </c>
@@ -14130,10 +14147,10 @@
         <v>10</v>
       </c>
       <c r="I474" s="2">
-        <v>0.2861952861952862</v>
-      </c>
-    </row>
-    <row r="475" spans="1:9">
+        <v>0.28619528619528622</v>
+      </c>
+    </row>
+    <row r="475" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A475" s="1">
         <v>17</v>
       </c>
@@ -14159,10 +14176,10 @@
         <v>10</v>
       </c>
       <c r="I475" s="2">
-        <v>0.2849002849002849</v>
-      </c>
-    </row>
-    <row r="476" spans="1:9">
+        <v>0.28490028490028491</v>
+      </c>
+    </row>
+    <row r="476" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A476" s="1">
         <v>17</v>
       </c>
@@ -14188,10 +14205,10 @@
         <v>10</v>
       </c>
       <c r="I476" s="2">
-        <v>0.2880658436213991</v>
-      </c>
-    </row>
-    <row r="477" spans="1:9">
+        <v>0.28806584362139909</v>
+      </c>
+    </row>
+    <row r="477" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A477" s="1">
         <v>17</v>
       </c>
@@ -14217,10 +14234,10 @@
         <v>10</v>
       </c>
       <c r="I477" s="2">
-        <v>0.291005291005291</v>
-      </c>
-    </row>
-    <row r="478" spans="1:9">
+        <v>0.29100529100529099</v>
+      </c>
+    </row>
+    <row r="478" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A478" s="1">
         <v>17</v>
       </c>
@@ -14246,10 +14263,10 @@
         <v>10</v>
       </c>
       <c r="I478" s="2">
-        <v>0.2962962962962963</v>
-      </c>
-    </row>
-    <row r="479" spans="1:9">
+        <v>0.29629629629629628</v>
+      </c>
+    </row>
+    <row r="479" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A479" s="1">
         <v>17</v>
       </c>
@@ -14275,10 +14292,10 @@
         <v>10</v>
       </c>
       <c r="I479" s="2">
-        <v>0.2962962962962963</v>
-      </c>
-    </row>
-    <row r="480" spans="1:9">
+        <v>0.29629629629629628</v>
+      </c>
+    </row>
+    <row r="480" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A480" s="1">
         <v>17</v>
       </c>
@@ -14304,10 +14321,10 @@
         <v>10</v>
       </c>
       <c r="I480" s="2">
-        <v>0.3050108932461874</v>
-      </c>
-    </row>
-    <row r="481" spans="1:9">
+        <v>0.30501089324618741</v>
+      </c>
+    </row>
+    <row r="481" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A481" s="1">
         <v>17</v>
       </c>
@@ -14333,10 +14350,10 @@
         <v>10</v>
       </c>
       <c r="I481" s="2">
-        <v>0.3059581320450885</v>
-      </c>
-    </row>
-    <row r="482" spans="1:9">
+        <v>0.30595813204508848</v>
+      </c>
+    </row>
+    <row r="482" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A482" s="1">
         <v>17</v>
       </c>
@@ -14362,10 +14379,10 @@
         <v>10</v>
       </c>
       <c r="I482" s="2">
-        <v>0.308641975308642</v>
-      </c>
-    </row>
-    <row r="483" spans="1:9">
+        <v>0.30864197530864201</v>
+      </c>
+    </row>
+    <row r="483" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A483" s="1">
         <v>17</v>
       </c>
@@ -14394,7 +14411,7 @@
         <v>0.3065134099616858</v>
       </c>
     </row>
-    <row r="484" spans="1:9">
+    <row r="484" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A484" s="1">
         <v>17</v>
       </c>
@@ -14420,10 +14437,10 @@
         <v>10</v>
       </c>
       <c r="I484" s="2">
-        <v>0.2469135802469136</v>
-      </c>
-    </row>
-    <row r="485" spans="1:9">
+        <v>0.24691358024691359</v>
+      </c>
+    </row>
+    <row r="485" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A485" s="1">
         <v>17</v>
       </c>
@@ -14449,10 +14466,10 @@
         <v>10</v>
       </c>
       <c r="I485" s="2">
-        <v>0.2469135802469136</v>
-      </c>
-    </row>
-    <row r="486" spans="1:9">
+        <v>0.24691358024691359</v>
+      </c>
+    </row>
+    <row r="486" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A486" s="1">
         <v>17</v>
       </c>
@@ -14478,10 +14495,10 @@
         <v>10</v>
       </c>
       <c r="I486" s="2">
-        <v>0.2469135802469136</v>
-      </c>
-    </row>
-    <row r="487" spans="1:9">
+        <v>0.24691358024691359</v>
+      </c>
+    </row>
+    <row r="487" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A487" s="1">
         <v>17</v>
       </c>
@@ -14507,10 +14524,10 @@
         <v>10</v>
       </c>
       <c r="I487" s="2">
-        <v>0.2576489533011272</v>
-      </c>
-    </row>
-    <row r="488" spans="1:9">
+        <v>0.25764895330112719</v>
+      </c>
+    </row>
+    <row r="488" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A488" s="1">
         <v>17</v>
       </c>
@@ -14536,10 +14553,10 @@
         <v>10</v>
       </c>
       <c r="I488" s="2">
-        <v>0.2666666666666667</v>
-      </c>
-    </row>
-    <row r="489" spans="1:9">
+        <v>0.26666666666666672</v>
+      </c>
+    </row>
+    <row r="489" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A489" s="1">
         <v>17</v>
       </c>
@@ -14565,10 +14582,10 @@
         <v>10</v>
       </c>
       <c r="I489" s="2">
-        <v>0.2681992337164751</v>
-      </c>
-    </row>
-    <row r="490" spans="1:9">
+        <v>0.26819923371647508</v>
+      </c>
+    </row>
+    <row r="490" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A490" s="1">
         <v>17</v>
       </c>
@@ -14594,10 +14611,10 @@
         <v>10</v>
       </c>
       <c r="I490" s="2">
-        <v>0.2777777777777778</v>
-      </c>
-    </row>
-    <row r="491" spans="1:9">
+        <v>0.27777777777777779</v>
+      </c>
+    </row>
+    <row r="491" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A491" s="1">
         <v>17</v>
       </c>
@@ -14623,10 +14640,10 @@
         <v>10</v>
       </c>
       <c r="I491" s="2">
-        <v>0.2777777777777778</v>
-      </c>
-    </row>
-    <row r="492" spans="1:9">
+        <v>0.27777777777777779</v>
+      </c>
+    </row>
+    <row r="492" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A492" s="1">
         <v>17</v>
       </c>
@@ -14652,10 +14669,10 @@
         <v>10</v>
       </c>
       <c r="I492" s="2">
-        <v>0.2777777777777778</v>
-      </c>
-    </row>
-    <row r="493" spans="1:9">
+        <v>0.27777777777777779</v>
+      </c>
+    </row>
+    <row r="493" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A493" s="1">
         <v>17</v>
       </c>
@@ -14681,10 +14698,10 @@
         <v>10</v>
       </c>
       <c r="I493" s="2">
-        <v>0.2861952861952862</v>
-      </c>
-    </row>
-    <row r="494" spans="1:9">
+        <v>0.28619528619528622</v>
+      </c>
+    </row>
+    <row r="494" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A494" s="1">
         <v>17</v>
       </c>
@@ -14710,10 +14727,10 @@
         <v>10</v>
       </c>
       <c r="I494" s="2">
-        <v>0.2880658436213991</v>
-      </c>
-    </row>
-    <row r="495" spans="1:9">
+        <v>0.28806584362139909</v>
+      </c>
+    </row>
+    <row r="495" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A495" s="1">
         <v>17</v>
       </c>
@@ -14739,10 +14756,10 @@
         <v>10</v>
       </c>
       <c r="I495" s="2">
-        <v>0.2962962962962963</v>
-      </c>
-    </row>
-    <row r="496" spans="1:9">
+        <v>0.29629629629629628</v>
+      </c>
+    </row>
+    <row r="496" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A496" s="1">
         <v>17</v>
       </c>
@@ -14768,10 +14785,10 @@
         <v>10</v>
       </c>
       <c r="I496" s="2">
-        <v>0.2962962962962963</v>
-      </c>
-    </row>
-    <row r="497" spans="1:9">
+        <v>0.29629629629629628</v>
+      </c>
+    </row>
+    <row r="497" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A497" s="1">
         <v>17</v>
       </c>
@@ -14797,10 +14814,10 @@
         <v>10</v>
       </c>
       <c r="I497" s="2">
-        <v>0.2991452991452991</v>
-      </c>
-    </row>
-    <row r="498" spans="1:9">
+        <v>0.29914529914529908</v>
+      </c>
+    </row>
+    <row r="498" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A498" s="1">
         <v>17</v>
       </c>
@@ -14826,10 +14843,10 @@
         <v>10</v>
       </c>
       <c r="I498" s="2">
-        <v>0.3050108932461874</v>
-      </c>
-    </row>
-    <row r="499" spans="1:9">
+        <v>0.30501089324618741</v>
+      </c>
+    </row>
+    <row r="499" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A499" s="1">
         <v>17</v>
       </c>
@@ -14855,10 +14872,10 @@
         <v>10</v>
       </c>
       <c r="I499" s="2">
-        <v>0.308641975308642</v>
-      </c>
-    </row>
-    <row r="500" spans="1:9">
+        <v>0.30864197530864201</v>
+      </c>
+    </row>
+    <row r="500" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A500" s="1">
         <v>17</v>
       </c>
@@ -14884,10 +14901,10 @@
         <v>10</v>
       </c>
       <c r="I500" s="2">
-        <v>0.308641975308642</v>
-      </c>
-    </row>
-    <row r="501" spans="1:9">
+        <v>0.30864197530864201</v>
+      </c>
+    </row>
+    <row r="501" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A501" s="1">
         <v>18</v>
       </c>
@@ -14913,10 +14930,10 @@
         <v>10</v>
       </c>
       <c r="I501" s="2">
-        <v>0.3099173553719008</v>
-      </c>
-    </row>
-    <row r="502" spans="1:9">
+        <v>0.30991735537190079</v>
+      </c>
+    </row>
+    <row r="502" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A502" s="1">
         <v>18</v>
       </c>
@@ -14942,10 +14959,10 @@
         <v>10</v>
       </c>
       <c r="I502" s="2">
-        <v>0.303030303030303</v>
-      </c>
-    </row>
-    <row r="503" spans="1:9">
+        <v>0.30303030303030298</v>
+      </c>
+    </row>
+    <row r="503" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A503" s="1">
         <v>18</v>
       </c>
@@ -14971,10 +14988,10 @@
         <v>10</v>
       </c>
       <c r="I503" s="2">
-        <v>0.303030303030303</v>
-      </c>
-    </row>
-    <row r="504" spans="1:9">
+        <v>0.30303030303030298</v>
+      </c>
+    </row>
+    <row r="504" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A504" s="1">
         <v>18</v>
       </c>
@@ -15000,10 +15017,10 @@
         <v>10</v>
       </c>
       <c r="I504" s="2">
-        <v>0.303030303030303</v>
-      </c>
-    </row>
-    <row r="505" spans="1:9">
+        <v>0.30303030303030298</v>
+      </c>
+    </row>
+    <row r="505" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A505" s="1">
         <v>18</v>
       </c>
@@ -15029,10 +15046,10 @@
         <v>11</v>
       </c>
       <c r="I505" s="2">
-        <v>0.3055555555555555</v>
-      </c>
-    </row>
-    <row r="506" spans="1:9">
+        <v>0.30555555555555552</v>
+      </c>
+    </row>
+    <row r="506" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A506" s="1">
         <v>18</v>
       </c>
@@ -15058,10 +15075,10 @@
         <v>11</v>
       </c>
       <c r="I506" s="2">
-        <v>0.3055555555555555</v>
-      </c>
-    </row>
-    <row r="507" spans="1:9">
+        <v>0.30555555555555552</v>
+      </c>
+    </row>
+    <row r="507" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A507" s="1">
         <v>18</v>
       </c>
@@ -15087,10 +15104,10 @@
         <v>11</v>
       </c>
       <c r="I507" s="2">
-        <v>0.3055555555555555</v>
-      </c>
-    </row>
-    <row r="508" spans="1:9">
+        <v>0.30555555555555552</v>
+      </c>
+    </row>
+    <row r="508" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A508" s="1">
         <v>18</v>
       </c>
@@ -15116,10 +15133,10 @@
         <v>12</v>
       </c>
       <c r="I508" s="2">
-        <v>0.3076923076923077</v>
-      </c>
-    </row>
-    <row r="509" spans="1:9">
+        <v>0.30769230769230771</v>
+      </c>
+    </row>
+    <row r="509" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A509" s="1">
         <v>18</v>
       </c>
@@ -15145,10 +15162,10 @@
         <v>12</v>
       </c>
       <c r="I509" s="2">
-        <v>0.3076923076923077</v>
-      </c>
-    </row>
-    <row r="510" spans="1:9">
+        <v>0.30769230769230771</v>
+      </c>
+    </row>
+    <row r="510" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A510" s="1">
         <v>18</v>
       </c>
@@ -15174,10 +15191,10 @@
         <v>12</v>
       </c>
       <c r="I510" s="2">
-        <v>0.3076923076923077</v>
-      </c>
-    </row>
-    <row r="511" spans="1:9">
+        <v>0.30769230769230771</v>
+      </c>
+    </row>
+    <row r="511" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A511" s="1">
         <v>18</v>
       </c>
@@ -15203,10 +15220,10 @@
         <v>13</v>
       </c>
       <c r="I511" s="2">
-        <v>0.3095238095238095</v>
-      </c>
-    </row>
-    <row r="512" spans="1:9">
+        <v>0.30952380952380948</v>
+      </c>
+    </row>
+    <row r="512" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A512" s="1">
         <v>18</v>
       </c>
@@ -15232,10 +15249,10 @@
         <v>13</v>
       </c>
       <c r="I512" s="2">
-        <v>0.3095238095238095</v>
-      </c>
-    </row>
-    <row r="513" spans="1:9">
+        <v>0.30952380952380948</v>
+      </c>
+    </row>
+    <row r="513" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A513" s="1">
         <v>18</v>
       </c>
@@ -15261,10 +15278,10 @@
         <v>13</v>
       </c>
       <c r="I513" s="2">
-        <v>0.3095238095238095</v>
-      </c>
-    </row>
-    <row r="514" spans="1:9">
+        <v>0.30952380952380948</v>
+      </c>
+    </row>
+    <row r="514" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A514" s="1">
         <v>18</v>
       </c>
@@ -15290,10 +15307,10 @@
         <v>10</v>
       </c>
       <c r="I514" s="2">
-        <v>0.2976190476190476</v>
-      </c>
-    </row>
-    <row r="515" spans="1:9">
+        <v>0.29761904761904762</v>
+      </c>
+    </row>
+    <row r="515" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A515" s="1">
         <v>18</v>
       </c>
@@ -15319,10 +15336,10 @@
         <v>10</v>
       </c>
       <c r="I515" s="2">
-        <v>0.3009259259259259</v>
-      </c>
-    </row>
-    <row r="516" spans="1:9">
+        <v>0.30092592592592587</v>
+      </c>
+    </row>
+    <row r="516" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A516" s="1">
         <v>18</v>
       </c>
@@ -15348,10 +15365,10 @@
         <v>10</v>
       </c>
       <c r="I516" s="2">
-        <v>0.303030303030303</v>
-      </c>
-    </row>
-    <row r="517" spans="1:9">
+        <v>0.30303030303030298</v>
+      </c>
+    </row>
+    <row r="517" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A517" s="1">
         <v>18</v>
       </c>
@@ -15377,10 +15394,10 @@
         <v>10</v>
       </c>
       <c r="I517" s="2">
-        <v>0.3044871794871795</v>
-      </c>
-    </row>
-    <row r="518" spans="1:9">
+        <v>0.30448717948717952</v>
+      </c>
+    </row>
+    <row r="518" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A518" s="1">
         <v>18</v>
       </c>
@@ -15406,10 +15423,10 @@
         <v>10</v>
       </c>
       <c r="I518" s="2">
-        <v>0.2916666666666667</v>
-      </c>
-    </row>
-    <row r="519" spans="1:9">
+        <v>0.29166666666666669</v>
+      </c>
+    </row>
+    <row r="519" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A519" s="1">
         <v>18</v>
       </c>
@@ -15438,7 +15455,7 @@
         <v>0.2951388888888889</v>
       </c>
     </row>
-    <row r="520" spans="1:9">
+    <row r="520" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A520" s="1">
         <v>18</v>
       </c>
@@ -15464,10 +15481,10 @@
         <v>10</v>
       </c>
       <c r="I520" s="2">
-        <v>0.2976190476190476</v>
-      </c>
-    </row>
-    <row r="521" spans="1:9">
+        <v>0.29761904761904762</v>
+      </c>
+    </row>
+    <row r="521" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A521" s="1">
         <v>18</v>
       </c>
@@ -15496,7 +15513,7 @@
         <v>0.3079710144927536</v>
       </c>
     </row>
-    <row r="522" spans="1:9">
+    <row r="522" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A522" s="1">
         <v>18</v>
       </c>
@@ -15522,10 +15539,10 @@
         <v>10</v>
       </c>
       <c r="I522" s="2">
-        <v>0.308641975308642</v>
-      </c>
-    </row>
-    <row r="523" spans="1:9">
+        <v>0.30864197530864201</v>
+      </c>
+    </row>
+    <row r="523" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A523" s="1">
         <v>18</v>
       </c>
@@ -15551,10 +15568,10 @@
         <v>10</v>
       </c>
       <c r="I523" s="2">
-        <v>0.2840909090909091</v>
-      </c>
-    </row>
-    <row r="524" spans="1:9">
+        <v>0.28409090909090912</v>
+      </c>
+    </row>
+    <row r="524" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A524" s="1">
         <v>18</v>
       </c>
@@ -15583,7 +15600,7 @@
         <v>0.2873563218390805</v>
       </c>
     </row>
-    <row r="525" spans="1:9">
+    <row r="525" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A525" s="1">
         <v>18</v>
       </c>
@@ -15609,10 +15626,10 @@
         <v>10</v>
       </c>
       <c r="I525" s="2">
-        <v>0.2941176470588235</v>
-      </c>
-    </row>
-    <row r="526" spans="1:9">
+        <v>0.29411764705882348</v>
+      </c>
+    </row>
+    <row r="526" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A526" s="1">
         <v>18</v>
       </c>
@@ -15638,10 +15655,10 @@
         <v>10</v>
       </c>
       <c r="I526" s="2">
-        <v>0.2976190476190476</v>
-      </c>
-    </row>
-    <row r="527" spans="1:9">
+        <v>0.29761904761904762</v>
+      </c>
+    </row>
+    <row r="527" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A527" s="1">
         <v>18</v>
       </c>
@@ -15667,10 +15684,10 @@
         <v>10</v>
       </c>
       <c r="I527" s="2">
-        <v>0.2976190476190476</v>
-      </c>
-    </row>
-    <row r="528" spans="1:9">
+        <v>0.29761904761904762</v>
+      </c>
+    </row>
+    <row r="528" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A528" s="1">
         <v>18</v>
       </c>
@@ -15696,10 +15713,10 @@
         <v>10</v>
       </c>
       <c r="I528" s="2">
-        <v>0.3055555555555555</v>
-      </c>
-    </row>
-    <row r="529" spans="1:9">
+        <v>0.30555555555555552</v>
+      </c>
+    </row>
+    <row r="529" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A529" s="1">
         <v>18</v>
       </c>
@@ -15725,10 +15742,10 @@
         <v>10</v>
       </c>
       <c r="I529" s="2">
-        <v>0.3070175438596491</v>
-      </c>
-    </row>
-    <row r="530" spans="1:9">
+        <v>0.30701754385964908</v>
+      </c>
+    </row>
+    <row r="530" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A530" s="1">
         <v>18</v>
       </c>
@@ -15757,7 +15774,7 @@
         <v>0.3079710144927536</v>
       </c>
     </row>
-    <row r="531" spans="1:9">
+    <row r="531" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A531" s="1">
         <v>18</v>
       </c>
@@ -15783,10 +15800,10 @@
         <v>10</v>
       </c>
       <c r="I531" s="2">
-        <v>0.2777777777777778</v>
-      </c>
-    </row>
-    <row r="532" spans="1:9">
+        <v>0.27777777777777779</v>
+      </c>
+    </row>
+    <row r="532" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A532" s="1">
         <v>18</v>
       </c>
@@ -15812,10 +15829,10 @@
         <v>10</v>
       </c>
       <c r="I532" s="2">
-        <v>0.2777777777777778</v>
-      </c>
-    </row>
-    <row r="533" spans="1:9">
+        <v>0.27777777777777779</v>
+      </c>
+    </row>
+    <row r="533" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A533" s="1">
         <v>18</v>
       </c>
@@ -15841,10 +15858,10 @@
         <v>10</v>
       </c>
       <c r="I533" s="2">
-        <v>0.2777777777777778</v>
-      </c>
-    </row>
-    <row r="534" spans="1:9">
+        <v>0.27777777777777779</v>
+      </c>
+    </row>
+    <row r="534" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A534" s="1">
         <v>18</v>
       </c>
@@ -15870,10 +15887,10 @@
         <v>10</v>
       </c>
       <c r="I534" s="2">
-        <v>0.2898550724637681</v>
-      </c>
-    </row>
-    <row r="535" spans="1:9">
+        <v>0.28985507246376813</v>
+      </c>
+    </row>
+    <row r="535" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A535" s="1">
         <v>18</v>
       </c>
@@ -15902,7 +15919,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="536" spans="1:9">
+    <row r="536" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A536" s="1">
         <v>18</v>
       </c>
@@ -15928,10 +15945,10 @@
         <v>10</v>
       </c>
       <c r="I536" s="2">
-        <v>0.3017241379310345</v>
-      </c>
-    </row>
-    <row r="537" spans="1:9">
+        <v>0.30172413793103448</v>
+      </c>
+    </row>
+    <row r="537" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A537" s="1">
         <v>18</v>
       </c>
@@ -15957,10 +15974,10 @@
         <v>11</v>
       </c>
       <c r="I537" s="2">
-        <v>0.3055555555555555</v>
-      </c>
-    </row>
-    <row r="538" spans="1:9">
+        <v>0.30555555555555552</v>
+      </c>
+    </row>
+    <row r="538" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A538" s="1">
         <v>18</v>
       </c>
@@ -15986,10 +16003,10 @@
         <v>11</v>
       </c>
       <c r="I538" s="2">
-        <v>0.3055555555555555</v>
-      </c>
-    </row>
-    <row r="539" spans="1:9">
+        <v>0.30555555555555552</v>
+      </c>
+    </row>
+    <row r="539" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A539" s="1">
         <v>18</v>
       </c>
@@ -16015,10 +16032,10 @@
         <v>11</v>
       </c>
       <c r="I539" s="2">
-        <v>0.3090676883780332</v>
-      </c>
-    </row>
-    <row r="540" spans="1:9">
+        <v>0.30906768837803322</v>
+      </c>
+    </row>
+    <row r="540" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A540" s="1">
         <v>18</v>
       </c>
@@ -16044,10 +16061,10 @@
         <v>11</v>
       </c>
       <c r="I540" s="2">
-        <v>0.291005291005291</v>
-      </c>
-    </row>
-    <row r="541" spans="1:9">
+        <v>0.29100529100529099</v>
+      </c>
+    </row>
+    <row r="541" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A541" s="1">
         <v>18</v>
       </c>
@@ -16073,10 +16090,10 @@
         <v>11</v>
       </c>
       <c r="I541" s="2">
-        <v>0.294238683127572</v>
-      </c>
-    </row>
-    <row r="542" spans="1:9">
+        <v>0.29423868312757201</v>
+      </c>
+    </row>
+    <row r="542" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A542" s="1">
         <v>18</v>
       </c>
@@ -16102,10 +16119,10 @@
         <v>11</v>
       </c>
       <c r="I542" s="2">
-        <v>0.2962962962962963</v>
-      </c>
-    </row>
-    <row r="543" spans="1:9">
+        <v>0.29629629629629628</v>
+      </c>
+    </row>
+    <row r="543" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A543" s="1">
         <v>18</v>
       </c>
@@ -16131,10 +16148,10 @@
         <v>11</v>
       </c>
       <c r="I543" s="2">
-        <v>0.2977207977207977</v>
-      </c>
-    </row>
-    <row r="544" spans="1:9">
+        <v>0.29772079772079768</v>
+      </c>
+    </row>
+    <row r="544" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A544" s="1">
         <v>18</v>
       </c>
@@ -16160,10 +16177,10 @@
         <v>12</v>
       </c>
       <c r="I544" s="2">
-        <v>0.2955665024630542</v>
-      </c>
-    </row>
-    <row r="545" spans="1:9">
+        <v>0.29556650246305421</v>
+      </c>
+    </row>
+    <row r="545" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A545" s="1">
         <v>18</v>
       </c>
@@ -16189,10 +16206,10 @@
         <v>12</v>
       </c>
       <c r="I545" s="2">
-        <v>0.2988505747126436</v>
-      </c>
-    </row>
-    <row r="546" spans="1:9">
+        <v>0.29885057471264359</v>
+      </c>
+    </row>
+    <row r="546" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A546" s="1">
         <v>18</v>
       </c>
@@ -16218,10 +16235,10 @@
         <v>12</v>
       </c>
       <c r="I546" s="2">
-        <v>0.3009404388714734</v>
-      </c>
-    </row>
-    <row r="547" spans="1:9">
+        <v>0.30094043887147343</v>
+      </c>
+    </row>
+    <row r="547" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A547" s="1">
         <v>18</v>
       </c>
@@ -16247,10 +16264,10 @@
         <v>12</v>
       </c>
       <c r="I547" s="2">
-        <v>0.3023872679045093</v>
-      </c>
-    </row>
-    <row r="548" spans="1:9">
+        <v>0.30238726790450932</v>
+      </c>
+    </row>
+    <row r="548" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A548" s="1">
         <v>18</v>
       </c>
@@ -16276,10 +16293,10 @@
         <v>11</v>
       </c>
       <c r="I548" s="2">
-        <v>0.3055555555555555</v>
-      </c>
-    </row>
-    <row r="549" spans="1:9">
+        <v>0.30555555555555552</v>
+      </c>
+    </row>
+    <row r="549" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A549" s="1">
         <v>18</v>
       </c>
@@ -16305,10 +16322,10 @@
         <v>11</v>
       </c>
       <c r="I549" s="2">
-        <v>0.3096296296296296</v>
-      </c>
-    </row>
-    <row r="550" spans="1:9">
+        <v>0.30962962962962959</v>
+      </c>
+    </row>
+    <row r="550" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A550" s="1">
         <v>18</v>
       </c>
@@ -16334,10 +16351,10 @@
         <v>11</v>
       </c>
       <c r="I550" s="2">
-        <v>0.3090676883780332</v>
-      </c>
-    </row>
-    <row r="551" spans="1:9">
+        <v>0.30906768837803322</v>
+      </c>
+    </row>
+    <row r="551" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A551" s="1">
         <v>18</v>
       </c>
@@ -16363,10 +16380,10 @@
         <v>11</v>
       </c>
       <c r="I551" s="2">
-        <v>0.2851851851851852</v>
-      </c>
-    </row>
-    <row r="552" spans="1:9">
+        <v>0.28518518518518521</v>
+      </c>
+    </row>
+    <row r="552" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A552" s="1">
         <v>18</v>
       </c>
@@ -16392,10 +16409,10 @@
         <v>11</v>
       </c>
       <c r="I552" s="2">
-        <v>0.2885802469135803</v>
-      </c>
-    </row>
-    <row r="553" spans="1:9">
+        <v>0.28858024691358031</v>
+      </c>
+    </row>
+    <row r="553" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A553" s="1">
         <v>18</v>
       </c>
@@ -16421,10 +16438,10 @@
         <v>11</v>
       </c>
       <c r="I553" s="2">
-        <v>0.291005291005291</v>
-      </c>
-    </row>
-    <row r="554" spans="1:9">
+        <v>0.29100529100529099</v>
+      </c>
+    </row>
+    <row r="554" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A554" s="1">
         <v>18</v>
       </c>
@@ -16450,10 +16467,10 @@
         <v>12</v>
       </c>
       <c r="I554" s="2">
-        <v>0.2896551724137931</v>
-      </c>
-    </row>
-    <row r="555" spans="1:9">
+        <v>0.28965517241379313</v>
+      </c>
+    </row>
+    <row r="555" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A555" s="1">
         <v>18</v>
       </c>
@@ -16482,7 +16499,7 @@
         <v>0.2931034482758621</v>
       </c>
     </row>
-    <row r="556" spans="1:9">
+    <row r="556" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A556" s="1">
         <v>18</v>
       </c>
@@ -16508,10 +16525,10 @@
         <v>12</v>
       </c>
       <c r="I556" s="2">
-        <v>0.2955665024630542</v>
-      </c>
-    </row>
-    <row r="557" spans="1:9">
+        <v>0.29556650246305421</v>
+      </c>
+    </row>
+    <row r="557" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A557" s="1">
         <v>18</v>
       </c>
@@ -16537,10 +16554,10 @@
         <v>11</v>
       </c>
       <c r="I557" s="2">
-        <v>0.3011272141706924</v>
-      </c>
-    </row>
-    <row r="558" spans="1:9">
+        <v>0.30112721417069238</v>
+      </c>
+    </row>
+    <row r="558" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A558" s="1">
         <v>18</v>
       </c>
@@ -16566,10 +16583,10 @@
         <v>11</v>
       </c>
       <c r="I558" s="2">
-        <v>0.3017832647462277</v>
-      </c>
-    </row>
-    <row r="559" spans="1:9">
+        <v>0.30178326474622769</v>
+      </c>
+    </row>
+    <row r="559" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A559" s="1">
         <v>18</v>
       </c>
@@ -16595,10 +16612,10 @@
         <v>12</v>
       </c>
       <c r="I559" s="2">
-        <v>0.3058470764617691</v>
-      </c>
-    </row>
-    <row r="560" spans="1:9">
+        <v>0.30584707646176912</v>
+      </c>
+    </row>
+    <row r="560" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A560" s="1">
         <v>18</v>
       </c>
@@ -16627,7 +16644,7 @@
         <v>0.3065134099616858</v>
       </c>
     </row>
-    <row r="561" spans="1:9">
+    <row r="561" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A561" s="1">
         <v>18</v>
       </c>
@@ -16653,10 +16670,10 @@
         <v>11</v>
       </c>
       <c r="I561" s="2">
-        <v>0.2777777777777777</v>
-      </c>
-    </row>
-    <row r="562" spans="1:9">
+        <v>0.27777777777777768</v>
+      </c>
+    </row>
+    <row r="562" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A562" s="1">
         <v>18</v>
       </c>
@@ -16682,10 +16699,10 @@
         <v>11</v>
       </c>
       <c r="I562" s="2">
-        <v>0.280970625798212</v>
-      </c>
-    </row>
-    <row r="563" spans="1:9">
+        <v>0.28097062579821203</v>
+      </c>
+    </row>
+    <row r="563" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A563" s="1">
         <v>18</v>
       </c>
@@ -16711,10 +16728,10 @@
         <v>12</v>
       </c>
       <c r="I563" s="2">
-        <v>0.2821316614420062</v>
-      </c>
-    </row>
-    <row r="564" spans="1:9">
+        <v>0.28213166144200619</v>
+      </c>
+    </row>
+    <row r="564" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A564" s="1">
         <v>18</v>
       </c>
@@ -16743,7 +16760,7 @@
         <v>0.2853745541022592</v>
       </c>
     </row>
-    <row r="565" spans="1:9">
+    <row r="565" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A565" s="1">
         <v>18</v>
       </c>
@@ -16769,10 +16786,10 @@
         <v>11</v>
       </c>
       <c r="I565" s="2">
-        <v>0.2875816993464052</v>
-      </c>
-    </row>
-    <row r="566" spans="1:9">
+        <v>0.28758169934640521</v>
+      </c>
+    </row>
+    <row r="566" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A566" s="1">
         <v>18</v>
       </c>
@@ -16798,10 +16815,10 @@
         <v>11</v>
       </c>
       <c r="I566" s="2">
-        <v>0.291005291005291</v>
-      </c>
-    </row>
-    <row r="567" spans="1:9">
+        <v>0.29100529100529099</v>
+      </c>
+    </row>
+    <row r="567" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A567" s="1">
         <v>18</v>
       </c>
@@ -16827,10 +16844,10 @@
         <v>11</v>
       </c>
       <c r="I567" s="2">
-        <v>0.291005291005291</v>
-      </c>
-    </row>
-    <row r="568" spans="1:9">
+        <v>0.29100529100529099</v>
+      </c>
+    </row>
+    <row r="568" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A568" s="1">
         <v>18</v>
       </c>
@@ -16859,7 +16876,7 @@
         <v>0.2920892494929006</v>
       </c>
     </row>
-    <row r="569" spans="1:9">
+    <row r="569" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A569" s="1">
         <v>18</v>
       </c>
@@ -16885,10 +16902,10 @@
         <v>12</v>
       </c>
       <c r="I569" s="2">
-        <v>0.2955665024630542</v>
-      </c>
-    </row>
-    <row r="570" spans="1:9">
+        <v>0.29556650246305421</v>
+      </c>
+    </row>
+    <row r="570" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A570" s="1">
         <v>18</v>
       </c>
@@ -16914,10 +16931,10 @@
         <v>12</v>
       </c>
       <c r="I570" s="2">
-        <v>0.2955665024630542</v>
-      </c>
-    </row>
-    <row r="571" spans="1:9">
+        <v>0.29556650246305421</v>
+      </c>
+    </row>
+    <row r="571" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A571" s="1">
         <v>18</v>
       </c>
@@ -16943,10 +16960,10 @@
         <v>11</v>
       </c>
       <c r="I571" s="2">
-        <v>0.2987654320987654</v>
-      </c>
-    </row>
-    <row r="572" spans="1:9">
+        <v>0.29876543209876538</v>
+      </c>
+    </row>
+    <row r="572" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A572" s="1">
         <v>18</v>
       </c>
@@ -16972,10 +16989,10 @@
         <v>11</v>
       </c>
       <c r="I572" s="2">
-        <v>0.3001949317738791</v>
-      </c>
-    </row>
-    <row r="573" spans="1:9">
+        <v>0.30019493177387913</v>
+      </c>
+    </row>
+    <row r="573" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A573" s="1">
         <v>18</v>
       </c>
@@ -17001,10 +17018,10 @@
         <v>11</v>
       </c>
       <c r="I573" s="2">
-        <v>0.3011272141706924</v>
-      </c>
-    </row>
-    <row r="574" spans="1:9">
+        <v>0.30112721417069238</v>
+      </c>
+    </row>
+    <row r="574" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A574" s="1">
         <v>18</v>
       </c>
@@ -17030,10 +17047,10 @@
         <v>11</v>
       </c>
       <c r="I574" s="2">
-        <v>0.3055555555555555</v>
-      </c>
-    </row>
-    <row r="575" spans="1:9">
+        <v>0.30555555555555552</v>
+      </c>
+    </row>
+    <row r="575" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A575" s="1">
         <v>18</v>
       </c>
@@ -17059,10 +17076,10 @@
         <v>12</v>
       </c>
       <c r="I575" s="2">
-        <v>0.303448275862069</v>
-      </c>
-    </row>
-    <row r="576" spans="1:9">
+        <v>0.30344827586206902</v>
+      </c>
+    </row>
+    <row r="576" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A576" s="1">
         <v>18</v>
       </c>
@@ -17088,10 +17105,10 @@
         <v>12</v>
       </c>
       <c r="I576" s="2">
-        <v>0.3049001814882032</v>
-      </c>
-    </row>
-    <row r="577" spans="1:9">
+        <v>0.30490018148820319</v>
+      </c>
+    </row>
+    <row r="577" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A577" s="1">
         <v>18</v>
       </c>
@@ -17117,10 +17134,10 @@
         <v>12</v>
       </c>
       <c r="I577" s="2">
-        <v>0.3058470764617691</v>
-      </c>
-    </row>
-    <row r="578" spans="1:9">
+        <v>0.30584707646176912</v>
+      </c>
+    </row>
+    <row r="578" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A578" s="1">
         <v>18</v>
       </c>
@@ -17146,10 +17163,10 @@
         <v>11</v>
       </c>
       <c r="I578" s="2">
-        <v>0.2716049382716049</v>
-      </c>
-    </row>
-    <row r="579" spans="1:9">
+        <v>0.27160493827160492</v>
+      </c>
+    </row>
+    <row r="579" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A579" s="1">
         <v>18</v>
       </c>
@@ -17175,10 +17192,10 @@
         <v>11</v>
       </c>
       <c r="I579" s="2">
-        <v>0.2716049382716049</v>
-      </c>
-    </row>
-    <row r="580" spans="1:9">
+        <v>0.27160493827160492</v>
+      </c>
+    </row>
+    <row r="580" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A580" s="1">
         <v>18</v>
       </c>
@@ -17204,10 +17221,10 @@
         <v>11</v>
       </c>
       <c r="I580" s="2">
-        <v>0.2716049382716049</v>
-      </c>
-    </row>
-    <row r="581" spans="1:9">
+        <v>0.27160493827160492</v>
+      </c>
+    </row>
+    <row r="581" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A581" s="1">
         <v>18</v>
       </c>
@@ -17233,10 +17250,10 @@
         <v>12</v>
       </c>
       <c r="I581" s="2">
-        <v>0.2758620689655172</v>
-      </c>
-    </row>
-    <row r="582" spans="1:9">
+        <v>0.27586206896551718</v>
+      </c>
+    </row>
+    <row r="582" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A582" s="1">
         <v>18</v>
       </c>
@@ -17262,10 +17279,10 @@
         <v>12</v>
       </c>
       <c r="I582" s="2">
-        <v>0.2758620689655172</v>
-      </c>
-    </row>
-    <row r="583" spans="1:9">
+        <v>0.27586206896551718</v>
+      </c>
+    </row>
+    <row r="583" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A583" s="1">
         <v>18</v>
       </c>
@@ -17291,10 +17308,10 @@
         <v>12</v>
       </c>
       <c r="I583" s="2">
-        <v>0.2758620689655172</v>
-      </c>
-    </row>
-    <row r="584" spans="1:9">
+        <v>0.27586206896551718</v>
+      </c>
+    </row>
+    <row r="584" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A584" s="1">
         <v>18</v>
       </c>
@@ -17320,10 +17337,10 @@
         <v>11</v>
       </c>
       <c r="I584" s="2">
-        <v>0.2834138486312399</v>
-      </c>
-    </row>
-    <row r="585" spans="1:9">
+        <v>0.28341384863123992</v>
+      </c>
+    </row>
+    <row r="585" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A585" s="1">
         <v>18</v>
       </c>
@@ -17349,10 +17366,10 @@
         <v>12</v>
       </c>
       <c r="I585" s="2">
-        <v>0.287856071964018</v>
-      </c>
-    </row>
-    <row r="586" spans="1:9">
+        <v>0.28785607196401802</v>
+      </c>
+    </row>
+    <row r="586" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A586" s="1">
         <v>18</v>
       </c>
@@ -17378,10 +17395,10 @@
         <v>11</v>
       </c>
       <c r="I586" s="2">
-        <v>0.2933333333333333</v>
-      </c>
-    </row>
-    <row r="587" spans="1:9">
+        <v>0.29333333333333328</v>
+      </c>
+    </row>
+    <row r="587" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A587" s="1">
         <v>18</v>
       </c>
@@ -17410,7 +17427,7 @@
         <v>0.2950191570881226</v>
       </c>
     </row>
-    <row r="588" spans="1:9">
+    <row r="588" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A588" s="1">
         <v>18</v>
       </c>
@@ -17436,10 +17453,10 @@
         <v>12</v>
       </c>
       <c r="I588" s="2">
-        <v>0.2979310344827586</v>
-      </c>
-    </row>
-    <row r="589" spans="1:9">
+        <v>0.29793103448275859</v>
+      </c>
+    </row>
+    <row r="589" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A589" s="1">
         <v>18</v>
       </c>
@@ -17465,10 +17482,10 @@
         <v>12</v>
       </c>
       <c r="I589" s="2">
-        <v>0.2996432818073722</v>
-      </c>
-    </row>
-    <row r="590" spans="1:9">
+        <v>0.29964328180737221</v>
+      </c>
+    </row>
+    <row r="590" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A590" s="1">
         <v>18</v>
       </c>
@@ -17494,10 +17511,10 @@
         <v>11</v>
       </c>
       <c r="I590" s="2">
-        <v>0.3055555555555555</v>
-      </c>
-    </row>
-    <row r="591" spans="1:9">
+        <v>0.30555555555555552</v>
+      </c>
+    </row>
+    <row r="591" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A591" s="1">
         <v>18</v>
       </c>
@@ -17523,10 +17540,10 @@
         <v>11</v>
       </c>
       <c r="I591" s="2">
-        <v>0.3055555555555555</v>
-      </c>
-    </row>
-    <row r="592" spans="1:9">
+        <v>0.30555555555555552</v>
+      </c>
+    </row>
+    <row r="592" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A592" s="1">
         <v>18</v>
       </c>
@@ -17552,10 +17569,10 @@
         <v>11</v>
       </c>
       <c r="I592" s="2">
-        <v>0.3055555555555555</v>
-      </c>
-    </row>
-    <row r="593" spans="1:9">
+        <v>0.30555555555555552</v>
+      </c>
+    </row>
+    <row r="593" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A593" s="1">
         <v>19</v>
       </c>
@@ -17581,10 +17598,10 @@
         <v>10</v>
       </c>
       <c r="I593" s="2">
-        <v>0.3099173553719008</v>
-      </c>
-    </row>
-    <row r="594" spans="1:9">
+        <v>0.30991735537190079</v>
+      </c>
+    </row>
+    <row r="594" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A594" s="1">
         <v>19</v>
       </c>
@@ -17610,10 +17627,10 @@
         <v>10</v>
       </c>
       <c r="I594" s="2">
-        <v>0.303030303030303</v>
-      </c>
-    </row>
-    <row r="595" spans="1:9">
+        <v>0.30303030303030298</v>
+      </c>
+    </row>
+    <row r="595" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A595" s="1">
         <v>19</v>
       </c>
@@ -17639,10 +17656,10 @@
         <v>10</v>
       </c>
       <c r="I595" s="2">
-        <v>0.303030303030303</v>
-      </c>
-    </row>
-    <row r="596" spans="1:9">
+        <v>0.30303030303030298</v>
+      </c>
+    </row>
+    <row r="596" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A596" s="1">
         <v>19</v>
       </c>
@@ -17668,10 +17685,10 @@
         <v>10</v>
       </c>
       <c r="I596" s="2">
-        <v>0.303030303030303</v>
-      </c>
-    </row>
-    <row r="597" spans="1:9">
+        <v>0.30303030303030298</v>
+      </c>
+    </row>
+    <row r="597" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A597" s="1">
         <v>19</v>
       </c>
@@ -17697,10 +17714,10 @@
         <v>11</v>
       </c>
       <c r="I597" s="2">
-        <v>0.3055555555555555</v>
-      </c>
-    </row>
-    <row r="598" spans="1:9">
+        <v>0.30555555555555552</v>
+      </c>
+    </row>
+    <row r="598" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A598" s="1">
         <v>19</v>
       </c>
@@ -17726,10 +17743,10 @@
         <v>11</v>
       </c>
       <c r="I598" s="2">
-        <v>0.3055555555555555</v>
-      </c>
-    </row>
-    <row r="599" spans="1:9">
+        <v>0.30555555555555552</v>
+      </c>
+    </row>
+    <row r="599" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A599" s="1">
         <v>19</v>
       </c>
@@ -17755,10 +17772,10 @@
         <v>11</v>
       </c>
       <c r="I599" s="2">
-        <v>0.3055555555555555</v>
-      </c>
-    </row>
-    <row r="600" spans="1:9">
+        <v>0.30555555555555552</v>
+      </c>
+    </row>
+    <row r="600" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A600" s="1">
         <v>19</v>
       </c>
@@ -17784,10 +17801,10 @@
         <v>12</v>
       </c>
       <c r="I600" s="2">
-        <v>0.3076923076923077</v>
-      </c>
-    </row>
-    <row r="601" spans="1:9">
+        <v>0.30769230769230771</v>
+      </c>
+    </row>
+    <row r="601" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A601" s="1">
         <v>19</v>
       </c>
@@ -17813,10 +17830,10 @@
         <v>12</v>
       </c>
       <c r="I601" s="2">
-        <v>0.3076923076923077</v>
-      </c>
-    </row>
-    <row r="602" spans="1:9">
+        <v>0.30769230769230771</v>
+      </c>
+    </row>
+    <row r="602" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A602" s="1">
         <v>19</v>
       </c>
@@ -17842,10 +17859,10 @@
         <v>12</v>
       </c>
       <c r="I602" s="2">
-        <v>0.3076923076923077</v>
-      </c>
-    </row>
-    <row r="603" spans="1:9">
+        <v>0.30769230769230771</v>
+      </c>
+    </row>
+    <row r="603" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A603" s="1">
         <v>19</v>
       </c>
@@ -17871,10 +17888,10 @@
         <v>13</v>
       </c>
       <c r="I603" s="2">
-        <v>0.3095238095238095</v>
-      </c>
-    </row>
-    <row r="604" spans="1:9">
+        <v>0.30952380952380948</v>
+      </c>
+    </row>
+    <row r="604" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A604" s="1">
         <v>19</v>
       </c>
@@ -17900,10 +17917,10 @@
         <v>13</v>
       </c>
       <c r="I604" s="2">
-        <v>0.3095238095238095</v>
-      </c>
-    </row>
-    <row r="605" spans="1:9">
+        <v>0.30952380952380948</v>
+      </c>
+    </row>
+    <row r="605" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A605" s="1">
         <v>19</v>
       </c>
@@ -17929,10 +17946,10 @@
         <v>13</v>
       </c>
       <c r="I605" s="2">
-        <v>0.3095238095238095</v>
-      </c>
-    </row>
-    <row r="606" spans="1:9">
+        <v>0.30952380952380948</v>
+      </c>
+    </row>
+    <row r="606" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A606" s="1">
         <v>19</v>
       </c>
@@ -17958,10 +17975,10 @@
         <v>10</v>
       </c>
       <c r="I606" s="2">
-        <v>0.2976190476190476</v>
-      </c>
-    </row>
-    <row r="607" spans="1:9">
+        <v>0.29761904761904762</v>
+      </c>
+    </row>
+    <row r="607" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A607" s="1">
         <v>19</v>
       </c>
@@ -17987,10 +18004,10 @@
         <v>10</v>
       </c>
       <c r="I607" s="2">
-        <v>0.3009259259259259</v>
-      </c>
-    </row>
-    <row r="608" spans="1:9">
+        <v>0.30092592592592587</v>
+      </c>
+    </row>
+    <row r="608" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A608" s="1">
         <v>19</v>
       </c>
@@ -18016,10 +18033,10 @@
         <v>10</v>
       </c>
       <c r="I608" s="2">
-        <v>0.303030303030303</v>
-      </c>
-    </row>
-    <row r="609" spans="1:9">
+        <v>0.30303030303030298</v>
+      </c>
+    </row>
+    <row r="609" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A609" s="1">
         <v>19</v>
       </c>
@@ -18045,10 +18062,10 @@
         <v>10</v>
       </c>
       <c r="I609" s="2">
-        <v>0.3044871794871795</v>
-      </c>
-    </row>
-    <row r="610" spans="1:9">
+        <v>0.30448717948717952</v>
+      </c>
+    </row>
+    <row r="610" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A610" s="1">
         <v>19</v>
       </c>
@@ -18074,10 +18091,10 @@
         <v>11</v>
       </c>
       <c r="I610" s="2">
-        <v>0.3021978021978022</v>
-      </c>
-    </row>
-    <row r="611" spans="1:9">
+        <v>0.30219780219780218</v>
+      </c>
+    </row>
+    <row r="611" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A611" s="1">
         <v>19</v>
       </c>
@@ -18103,10 +18120,10 @@
         <v>11</v>
       </c>
       <c r="I611" s="2">
-        <v>0.3055555555555555</v>
-      </c>
-    </row>
-    <row r="612" spans="1:9">
+        <v>0.30555555555555552</v>
+      </c>
+    </row>
+    <row r="612" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A612" s="1">
         <v>19</v>
       </c>
@@ -18132,10 +18149,10 @@
         <v>11</v>
       </c>
       <c r="I612" s="2">
-        <v>0.3076923076923077</v>
-      </c>
-    </row>
-    <row r="613" spans="1:9">
+        <v>0.30769230769230771</v>
+      </c>
+    </row>
+    <row r="613" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A613" s="1">
         <v>19</v>
       </c>
@@ -18161,10 +18178,10 @@
         <v>11</v>
       </c>
       <c r="I613" s="2">
-        <v>0.3091715976331361</v>
-      </c>
-    </row>
-    <row r="614" spans="1:9">
+        <v>0.30917159763313612</v>
+      </c>
+    </row>
+    <row r="614" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A614" s="1">
         <v>19</v>
       </c>
@@ -18190,10 +18207,10 @@
         <v>10</v>
       </c>
       <c r="I614" s="2">
-        <v>0.2916666666666667</v>
-      </c>
-    </row>
-    <row r="615" spans="1:9">
+        <v>0.29166666666666669</v>
+      </c>
+    </row>
+    <row r="615" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A615" s="1">
         <v>19</v>
       </c>
@@ -18222,7 +18239,7 @@
         <v>0.2951388888888889</v>
       </c>
     </row>
-    <row r="616" spans="1:9">
+    <row r="616" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A616" s="1">
         <v>19</v>
       </c>
@@ -18248,10 +18265,10 @@
         <v>10</v>
       </c>
       <c r="I616" s="2">
-        <v>0.2976190476190476</v>
-      </c>
-    </row>
-    <row r="617" spans="1:9">
+        <v>0.29761904761904762</v>
+      </c>
+    </row>
+    <row r="617" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A617" s="1">
         <v>19</v>
       </c>
@@ -18277,10 +18294,10 @@
         <v>11</v>
       </c>
       <c r="I617" s="2">
-        <v>0.2961538461538462</v>
-      </c>
-    </row>
-    <row r="618" spans="1:9">
+        <v>0.29615384615384621</v>
+      </c>
+    </row>
+    <row r="618" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A618" s="1">
         <v>19</v>
       </c>
@@ -18306,10 +18323,10 @@
         <v>11</v>
       </c>
       <c r="I618" s="2">
-        <v>0.2996794871794872</v>
-      </c>
-    </row>
-    <row r="619" spans="1:9">
+        <v>0.29967948717948723</v>
+      </c>
+    </row>
+    <row r="619" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A619" s="1">
         <v>19</v>
       </c>
@@ -18335,10 +18352,10 @@
         <v>11</v>
       </c>
       <c r="I619" s="2">
-        <v>0.3021978021978022</v>
-      </c>
-    </row>
-    <row r="620" spans="1:9">
+        <v>0.30219780219780218</v>
+      </c>
+    </row>
+    <row r="620" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A620" s="1">
         <v>19</v>
       </c>
@@ -18367,7 +18384,7 @@
         <v>0.3079710144927536</v>
       </c>
     </row>
-    <row r="621" spans="1:9">
+    <row r="621" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A621" s="1">
         <v>19</v>
       </c>
@@ -18393,10 +18410,10 @@
         <v>10</v>
       </c>
       <c r="I621" s="2">
-        <v>0.308641975308642</v>
-      </c>
-    </row>
-    <row r="622" spans="1:9">
+        <v>0.30864197530864201</v>
+      </c>
+    </row>
+    <row r="622" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A622" s="1">
         <v>19</v>
       </c>
@@ -18422,10 +18439,10 @@
         <v>10</v>
       </c>
       <c r="I622" s="2">
-        <v>0.2840909090909091</v>
-      </c>
-    </row>
-    <row r="623" spans="1:9">
+        <v>0.28409090909090912</v>
+      </c>
+    </row>
+    <row r="623" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A623" s="1">
         <v>19</v>
       </c>
@@ -18454,7 +18471,7 @@
         <v>0.2873563218390805</v>
       </c>
     </row>
-    <row r="624" spans="1:9">
+    <row r="624" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A624" s="1">
         <v>19</v>
       </c>
@@ -18480,10 +18497,10 @@
         <v>11</v>
       </c>
       <c r="I624" s="2">
-        <v>0.2884615384615384</v>
-      </c>
-    </row>
-    <row r="625" spans="1:9">
+        <v>0.28846153846153838</v>
+      </c>
+    </row>
+    <row r="625" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A625" s="1">
         <v>19</v>
       </c>
@@ -18509,10 +18526,10 @@
         <v>11</v>
       </c>
       <c r="I625" s="2">
-        <v>0.2917771883289125</v>
-      </c>
-    </row>
-    <row r="626" spans="1:9">
+        <v>0.29177718832891247</v>
+      </c>
+    </row>
+    <row r="626" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A626" s="1">
         <v>19</v>
       </c>
@@ -18538,10 +18555,10 @@
         <v>10</v>
       </c>
       <c r="I626" s="2">
-        <v>0.2941176470588235</v>
-      </c>
-    </row>
-    <row r="627" spans="1:9">
+        <v>0.29411764705882348</v>
+      </c>
+    </row>
+    <row r="627" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A627" s="1">
         <v>19</v>
       </c>
@@ -18567,10 +18584,10 @@
         <v>10</v>
       </c>
       <c r="I627" s="2">
-        <v>0.2976190476190476</v>
-      </c>
-    </row>
-    <row r="628" spans="1:9">
+        <v>0.29761904761904762</v>
+      </c>
+    </row>
+    <row r="628" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A628" s="1">
         <v>19</v>
       </c>
@@ -18596,10 +18613,10 @@
         <v>10</v>
       </c>
       <c r="I628" s="2">
-        <v>0.2976190476190476</v>
-      </c>
-    </row>
-    <row r="629" spans="1:9">
+        <v>0.29761904761904762</v>
+      </c>
+    </row>
+    <row r="629" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A629" s="1">
         <v>19</v>
       </c>
@@ -18625,10 +18642,10 @@
         <v>11</v>
       </c>
       <c r="I629" s="2">
-        <v>0.2986425339366516</v>
-      </c>
-    </row>
-    <row r="630" spans="1:9">
+        <v>0.29864253393665158</v>
+      </c>
+    </row>
+    <row r="630" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A630" s="1">
         <v>19</v>
       </c>
@@ -18654,10 +18671,10 @@
         <v>11</v>
       </c>
       <c r="I630" s="2">
-        <v>0.3021978021978022</v>
-      </c>
-    </row>
-    <row r="631" spans="1:9">
+        <v>0.30219780219780218</v>
+      </c>
+    </row>
+    <row r="631" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A631" s="1">
         <v>19</v>
       </c>
@@ -18683,10 +18700,10 @@
         <v>11</v>
       </c>
       <c r="I631" s="2">
-        <v>0.3021978021978022</v>
-      </c>
-    </row>
-    <row r="632" spans="1:9">
+        <v>0.30219780219780218</v>
+      </c>
+    </row>
+    <row r="632" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A632" s="1">
         <v>19</v>
       </c>
@@ -18712,10 +18729,10 @@
         <v>10</v>
       </c>
       <c r="I632" s="2">
-        <v>0.3055555555555555</v>
-      </c>
-    </row>
-    <row r="633" spans="1:9">
+        <v>0.30555555555555552</v>
+      </c>
+    </row>
+    <row r="633" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A633" s="1">
         <v>19</v>
       </c>
@@ -18741,10 +18758,10 @@
         <v>10</v>
       </c>
       <c r="I633" s="2">
-        <v>0.3070175438596491</v>
-      </c>
-    </row>
-    <row r="634" spans="1:9">
+        <v>0.30701754385964908</v>
+      </c>
+    </row>
+    <row r="634" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A634" s="1">
         <v>19</v>
       </c>
@@ -18773,7 +18790,7 @@
         <v>0.3079710144927536</v>
       </c>
     </row>
-    <row r="635" spans="1:9">
+    <row r="635" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A635" s="1">
         <v>19</v>
       </c>
@@ -18799,10 +18816,10 @@
         <v>10</v>
       </c>
       <c r="I635" s="2">
-        <v>0.2777777777777778</v>
-      </c>
-    </row>
-    <row r="636" spans="1:9">
+        <v>0.27777777777777779</v>
+      </c>
+    </row>
+    <row r="636" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A636" s="1">
         <v>19</v>
       </c>
@@ -18828,10 +18845,10 @@
         <v>10</v>
       </c>
       <c r="I636" s="2">
-        <v>0.2777777777777778</v>
-      </c>
-    </row>
-    <row r="637" spans="1:9">
+        <v>0.27777777777777779</v>
+      </c>
+    </row>
+    <row r="637" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A637" s="1">
         <v>19</v>
       </c>
@@ -18857,10 +18874,10 @@
         <v>10</v>
       </c>
       <c r="I637" s="2">
-        <v>0.2777777777777778</v>
-      </c>
-    </row>
-    <row r="638" spans="1:9">
+        <v>0.27777777777777779</v>
+      </c>
+    </row>
+    <row r="638" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A638" s="1">
         <v>19</v>
       </c>
@@ -18886,10 +18903,10 @@
         <v>11</v>
       </c>
       <c r="I638" s="2">
-        <v>0.282051282051282</v>
-      </c>
-    </row>
-    <row r="639" spans="1:9">
+        <v>0.28205128205128199</v>
+      </c>
+    </row>
+    <row r="639" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A639" s="1">
         <v>19</v>
       </c>
@@ -18915,10 +18932,10 @@
         <v>11</v>
       </c>
       <c r="I639" s="2">
-        <v>0.282051282051282</v>
-      </c>
-    </row>
-    <row r="640" spans="1:9">
+        <v>0.28205128205128199</v>
+      </c>
+    </row>
+    <row r="640" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A640" s="1">
         <v>19</v>
       </c>
@@ -18944,10 +18961,10 @@
         <v>11</v>
       </c>
       <c r="I640" s="2">
-        <v>0.282051282051282</v>
-      </c>
-    </row>
-    <row r="641" spans="1:9">
+        <v>0.28205128205128199</v>
+      </c>
+    </row>
+    <row r="641" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A641" s="1">
         <v>19</v>
       </c>
@@ -18973,10 +18990,10 @@
         <v>10</v>
       </c>
       <c r="I641" s="2">
-        <v>0.2898550724637681</v>
-      </c>
-    </row>
-    <row r="642" spans="1:9">
+        <v>0.28985507246376813</v>
+      </c>
+    </row>
+    <row r="642" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A642" s="1">
         <v>19</v>
       </c>
@@ -19002,10 +19019,10 @@
         <v>11</v>
       </c>
       <c r="I642" s="2">
-        <v>0.294314381270903</v>
-      </c>
-    </row>
-    <row r="643" spans="1:9">
+        <v>0.29431438127090298</v>
+      </c>
+    </row>
+    <row r="643" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A643" s="1">
         <v>19</v>
       </c>
@@ -19034,7 +19051,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="644" spans="1:9">
+    <row r="644" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A644" s="1">
         <v>19</v>
       </c>
@@ -19060,10 +19077,10 @@
         <v>10</v>
       </c>
       <c r="I644" s="2">
-        <v>0.3017241379310345</v>
-      </c>
-    </row>
-    <row r="645" spans="1:9">
+        <v>0.30172413793103448</v>
+      </c>
+    </row>
+    <row r="645" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A645" s="1">
         <v>19</v>
       </c>
@@ -19089,10 +19106,10 @@
         <v>11</v>
       </c>
       <c r="I645" s="2">
-        <v>0.3046153846153846</v>
-      </c>
-    </row>
-    <row r="646" spans="1:9">
+        <v>0.30461538461538462</v>
+      </c>
+    </row>
+    <row r="646" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A646" s="1">
         <v>19</v>
       </c>
@@ -19118,10 +19135,10 @@
         <v>11</v>
       </c>
       <c r="I646" s="2">
-        <v>0.3063660477453581</v>
-      </c>
-    </row>
-    <row r="647" spans="1:9">
+        <v>0.30636604774535808</v>
+      </c>
+    </row>
+    <row r="647" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A647" s="1">
         <v>20</v>
       </c>
@@ -19147,10 +19164,10 @@
         <v>10</v>
       </c>
       <c r="I647" s="2">
-        <v>0.3099173553719008</v>
-      </c>
-    </row>
-    <row r="648" spans="1:9">
+        <v>0.30991735537190079</v>
+      </c>
+    </row>
+    <row r="648" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A648" s="1">
         <v>20</v>
       </c>
@@ -19176,10 +19193,10 @@
         <v>10</v>
       </c>
       <c r="I648" s="2">
-        <v>0.303030303030303</v>
-      </c>
-    </row>
-    <row r="649" spans="1:9">
+        <v>0.30303030303030298</v>
+      </c>
+    </row>
+    <row r="649" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A649" s="1">
         <v>20</v>
       </c>
@@ -19205,10 +19222,10 @@
         <v>10</v>
       </c>
       <c r="I649" s="2">
-        <v>0.303030303030303</v>
-      </c>
-    </row>
-    <row r="650" spans="1:9">
+        <v>0.30303030303030298</v>
+      </c>
+    </row>
+    <row r="650" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A650" s="1">
         <v>20</v>
       </c>
@@ -19234,10 +19251,10 @@
         <v>10</v>
       </c>
       <c r="I650" s="2">
-        <v>0.303030303030303</v>
-      </c>
-    </row>
-    <row r="651" spans="1:9">
+        <v>0.30303030303030298</v>
+      </c>
+    </row>
+    <row r="651" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A651" s="1">
         <v>20</v>
       </c>
@@ -19263,10 +19280,10 @@
         <v>11</v>
       </c>
       <c r="I651" s="2">
-        <v>0.3055555555555555</v>
-      </c>
-    </row>
-    <row r="652" spans="1:9">
+        <v>0.30555555555555552</v>
+      </c>
+    </row>
+    <row r="652" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A652" s="1">
         <v>20</v>
       </c>
@@ -19292,10 +19309,10 @@
         <v>11</v>
       </c>
       <c r="I652" s="2">
-        <v>0.3055555555555555</v>
-      </c>
-    </row>
-    <row r="653" spans="1:9">
+        <v>0.30555555555555552</v>
+      </c>
+    </row>
+    <row r="653" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A653" s="1">
         <v>20</v>
       </c>
@@ -19321,10 +19338,10 @@
         <v>11</v>
       </c>
       <c r="I653" s="2">
-        <v>0.3055555555555555</v>
-      </c>
-    </row>
-    <row r="654" spans="1:9">
+        <v>0.30555555555555552</v>
+      </c>
+    </row>
+    <row r="654" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A654" s="1">
         <v>20</v>
       </c>
@@ -19350,10 +19367,10 @@
         <v>12</v>
       </c>
       <c r="I654" s="2">
-        <v>0.3076923076923077</v>
-      </c>
-    </row>
-    <row r="655" spans="1:9">
+        <v>0.30769230769230771</v>
+      </c>
+    </row>
+    <row r="655" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A655" s="1">
         <v>20</v>
       </c>
@@ -19379,10 +19396,10 @@
         <v>12</v>
       </c>
       <c r="I655" s="2">
-        <v>0.3076923076923077</v>
-      </c>
-    </row>
-    <row r="656" spans="1:9">
+        <v>0.30769230769230771</v>
+      </c>
+    </row>
+    <row r="656" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A656" s="1">
         <v>20</v>
       </c>
@@ -19408,10 +19425,10 @@
         <v>12</v>
       </c>
       <c r="I656" s="2">
-        <v>0.3076923076923077</v>
-      </c>
-    </row>
-    <row r="657" spans="1:9">
+        <v>0.30769230769230771</v>
+      </c>
+    </row>
+    <row r="657" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A657" s="1">
         <v>20</v>
       </c>
@@ -19437,10 +19454,10 @@
         <v>13</v>
       </c>
       <c r="I657" s="2">
-        <v>0.3095238095238095</v>
-      </c>
-    </row>
-    <row r="658" spans="1:9">
+        <v>0.30952380952380948</v>
+      </c>
+    </row>
+    <row r="658" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A658" s="1">
         <v>20</v>
       </c>
@@ -19466,10 +19483,10 @@
         <v>13</v>
       </c>
       <c r="I658" s="2">
-        <v>0.3095238095238095</v>
-      </c>
-    </row>
-    <row r="659" spans="1:9">
+        <v>0.30952380952380948</v>
+      </c>
+    </row>
+    <row r="659" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A659" s="1">
         <v>20</v>
       </c>
@@ -19495,15 +19512,15 @@
         <v>13</v>
       </c>
       <c r="I659" s="2">
-        <v>0.3095238095238095</v>
-      </c>
-    </row>
-    <row r="662" spans="1:9">
+        <v>0.30952380952380948</v>
+      </c>
+    </row>
+    <row r="662" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A662" t="s">
         <v>9</v>
       </c>
       <c r="B662">
-        <v>0.2380952380952381</v>
+        <v>0.23809523809523811</v>
       </c>
     </row>
   </sheetData>
